--- a/public/preprocessing/@daratista_inul.xlsx
+++ b/public/preprocessing/@daratista_inul.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,15 +456,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>tweet_tokens_alay</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>tweet_tokens_fdist</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_WSW</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_stemmed</t>
         </is>
@@ -475,34 +480,39 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>20050</v>
+        <v>32567</v>
       </c>
       <c r="C2" t="n">
-        <v>243</v>
+        <v>377</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>berani gaya klo ga ada bini</t>
+          <t>alat pel jaman now</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['berani', 'gaya', 'klo', 'ga', 'ada', 'bini']</t>
+          <t>['alat', 'pel', 'jaman', 'now']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['alat', 'pel', 'jaman', 'now']</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['berani', 'gaya', 'bini']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['berani', 'gaya', 'bini']</t>
+          <t>['alat', 'pel', 'jaman', 'now']</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>['alat', 'pel', 'jaman', 'now']</t>
         </is>
       </c>
     </row>
@@ -511,34 +521,39 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20051</v>
+        <v>32568</v>
       </c>
       <c r="C3" t="n">
-        <v>243</v>
+        <v>377</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ada apa sih heboh masalah gunung aku zoom lha koq ada penampakan</t>
+          <t>berani gaya klo ga ada bini</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['ada', 'apa', 'sih', 'heboh', 'masalah', 'gunung', 'aku', 'zoom', 'lha', 'koq', 'ada', 'penampakan']</t>
+          <t>['berani', 'gaya', 'klo', 'ga', 'ada', 'bini']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 12 outcomes&gt;</t>
+          <t>['berani', 'gaya', 'kalau', 'tidak', 'ada', 'bini']</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['heboh', 'gunung', 'zoom', 'lha', 'koq', 'penampakan']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['heboh', 'gunung', 'zoom', 'lha', 'koq', 'tampak']</t>
+          <t>['berani', 'gaya', 'bini']</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>['berani', 'gaya', 'bini']</t>
         </is>
       </c>
     </row>
@@ -547,34 +562,39 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20052</v>
+        <v>32569</v>
       </c>
       <c r="C4" t="n">
-        <v>243</v>
+        <v>377</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>liat nih setiap harinya simpen biar gak ketinggalan jadwalnya</t>
+          <t>ada apa sih heboh masalah gunung aku zoom lha koq ada penampakan</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['liat', 'nih', 'setiap', 'harinya', 'simpen', 'biar', 'gak', 'ketinggalan', 'jadwalnya']</t>
+          <t>['ada', 'apa', 'sih', 'heboh', 'masalah', 'gunung', 'aku', 'zoom', 'lha', 'koq', 'ada', 'penampakan']</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['ada', 'apa', 'sih', 'heboh', 'masalah', 'gunung', 'aku', 'zoom', 'lah', 'kok', 'ada', 'penampakan']</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['liat', 'harinya', 'simpen', 'ketinggalan', 'jadwalnya']</t>
+          <t>&lt;FreqDist with 11 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['liat', 'hari', 'simpen', 'tinggal', 'jadwal']</t>
+          <t>['heboh', 'gunung', 'zoom', 'penampakan']</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>['heboh', 'gunung', 'zoom', 'tampak']</t>
         </is>
       </c>
     </row>
@@ -583,34 +603,39 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20053</v>
+        <v>32570</v>
       </c>
       <c r="C5" t="n">
-        <v>243</v>
+        <v>377</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>cara hematnya mas adam dadi rame ngene ihiiiir aku yo punya cara hemat tapi pakai yang</t>
+          <t>liat nih setiap harinya simpen biar gak ketinggalan jadwalnya</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['cara', 'hematnya', 'mas', 'adam', 'dadi', 'rame', 'ngene', 'ihiiiir', 'aku', 'yo', 'punya', 'cara', 'hemat', 'tapi', 'pakai', 'yang']</t>
+          <t>['liat', 'nih', 'setiap', 'harinya', 'simpen', 'biar', 'gak', 'ketinggalan', 'jadwalnya']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['lihat', 'nih', 'setiap', 'harinya', 'simpan', 'biar', 'tidak', 'ketinggalan', 'jadwalnya']</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['hematnya', 'mas', 'adam', 'dadi', 'rame', 'ngene', 'ihiiiir', 'yo', 'hemat', 'pakai']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['hemat', 'mas', 'adam', 'dadi', 'rame', 'ngene', 'ihiiiir', 'yo', 'hemat', 'pakai']</t>
+          <t>['lihat', 'harinya', 'simpan', 'ketinggalan', 'jadwalnya']</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>['lihat', 'hari', 'simpan', 'tinggal', 'jadwal']</t>
         </is>
       </c>
     </row>
@@ -619,34 +644,39 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20054</v>
+        <v>32571</v>
       </c>
       <c r="C6" t="n">
-        <v>243</v>
+        <v>377</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>bojone sopo tho iki kok koyok ngene coba siapa lagi yang punya cara hemat unik koyo ngene hayo</t>
+          <t>cara hematnya mas adam dadi rame ngene ihiiiir aku yo punya cara hemat tapi pakai yang</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['bojone', 'sopo', 'tho', 'iki', 'kok', 'koyok', 'ngene', 'coba', 'siapa', 'lagi', 'yang', 'punya', 'cara', 'hemat', 'unik', 'koyo', 'ngene', 'hayo']</t>
+          <t>['cara', 'hematnya', 'mas', 'adam', 'dadi', 'rame', 'ngene', 'ihiiiir', 'aku', 'yo', 'punya', 'cara', 'hemat', 'tapi', 'pakai', 'yang']</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['cara', 'hematnya', 'mas', 'adam', 'dadi', 'ramai', 'ini', 'ihiiiir', 'aku', 'iya', 'punya', 'cara', 'hemat', 'tapi', 'pakai', 'yang']</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['bojone', 'sopo', 'tho', 'iki', 'koyok', 'ngene', 'coba', 'hemat', 'unik', 'koyo', 'ngene', 'hayo']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['bojone', 'sopo', 'tho', 'iki', 'koyok', 'ngene', 'coba', 'hemat', 'unik', 'koyo', 'ngene', 'hayo']</t>
+          <t>['hematnya', 'mas', 'adam', 'dadi', 'ramai', 'ihiiiir', 'iya', 'hemat', 'pakai']</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>['hemat', 'mas', 'adam', 'dadi', 'ramai', 'ihiiiir', 'iya', 'hemat', 'pakai']</t>
         </is>
       </c>
     </row>
@@ -655,34 +685,39 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20055</v>
+        <v>32572</v>
       </c>
       <c r="C7" t="n">
-        <v>243</v>
+        <v>377</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>rt mnctv masak sambil nyanyi yuk bareng bunda inul biar makin semangat apalagi masakannya ueeenaak besok pagi</t>
+          <t>bojone sopo tho iki kok koyok ngene coba siapa lagi yang punya cara hemat unik koyo ngene hayo</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['rt', 'mnctv', 'masak', 'sambil', 'nyanyi', 'yuk', 'bareng', 'bunda', 'inul', 'biar', 'makin', 'semangat', 'apalagi', 'masakannya', 'ueeenaak', 'besok', 'pagi']</t>
+          <t>['bojone', 'sopo', 'tho', 'iki', 'kok', 'koyok', 'ngene', 'coba', 'siapa', 'lagi', 'yang', 'punya', 'cara', 'hemat', 'unik', 'koyo', 'ngene', 'hayo']</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['bojone', 'siapa', 'though', 'ini', 'kok', 'koyok', 'ini', 'coba', 'siapa', 'lagi', 'yang', 'punya', 'cara', 'hemat', 'unik', 'koyo', 'ini', 'hayo']</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['mnctv', 'masak', 'nyanyi', 'yuk', 'bareng', 'bunda', 'inul', 'semangat', 'masakannya', 'ueeenaak', 'besok', 'pagi']</t>
+          <t>&lt;FreqDist with 15 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['mnctv', 'masak', 'nyanyi', 'yuk', 'bareng', 'bunda', 'inul', 'semangat', 'masakan', 'ueeenaak', 'besok', 'pagi']</t>
+          <t>['bojone', 'though', 'koyok', 'coba', 'hemat', 'unik', 'koyo', 'hayo']</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>['bojone', 'though', 'koyok', 'coba', 'hemat', 'unik', 'koyo', 'hayo']</t>
         </is>
       </c>
     </row>
@@ -691,34 +726,39 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>20056</v>
+        <v>32573</v>
       </c>
       <c r="C8" t="n">
-        <v>243</v>
+        <v>377</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>hayuk nonton kopi viral di trans tv pagi ini pukul wib</t>
+          <t>rt mnctv masak sambil nyanyi yuk bareng bunda inul biar makin semangat apalagi masakannya ueeenaak besok pagi</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['hayuk', 'nonton', 'kopi', 'viral', 'di', 'trans', 'tv', 'pagi', 'ini', 'pukul', 'wib']</t>
+          <t>['rt', 'mnctv', 'masak', 'sambil', 'nyanyi', 'yuk', 'bareng', 'bunda', 'inul', 'biar', 'makin', 'semangat', 'apalagi', 'masakannya', 'ueeenaak', 'besok', 'pagi']</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['rt', 'mnctv', 'masak', 'sambil', 'nyanyi', 'yuk', 'bareng', 'bunda', 'inul', 'biar', 'makin', 'semangat', 'apalagi', 'masakannya', 'ueeenaak', 'besok', 'pagi']</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['hayuk', 'nonton', 'kopi', 'viral', 'trans', 'tv', 'pagi', 'wib']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['hayuk', 'nonton', 'kopi', 'viral', 'trans', 'tv', 'pagi', 'wib']</t>
+          <t>['mnctv', 'masak', 'nyanyi', 'yuk', 'bareng', 'bunda', 'inul', 'semangat', 'masakannya', 'ueeenaak', 'besok', 'pagi']</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>['mnctv', 'masak', 'nyanyi', 'yuk', 'bareng', 'bunda', 'inul', 'semangat', 'masakan', 'ueeenaak', 'besok', 'pagi']</t>
         </is>
       </c>
     </row>
@@ -727,30 +767,39 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>20057</v>
+        <v>32574</v>
       </c>
       <c r="C9" t="n">
-        <v>243</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
+        <v>377</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>hayuk nonton kopi viral di trans tv pagi ini pukul wib</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['hayuk', 'nonton', 'kopi', 'viral', 'di', 'trans', 'tv', 'pagi', 'ini', 'pukul', 'wib']</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['hayuk', 'menonton', 'kopi', 'viral', 'di', 'trans', 'televisi', 'pagi', 'ini', 'pukul', 'waktu, indonesia, bagian, barat']</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['hayuk', 'menonton', 'kopi', 'viral', 'trans', 'televisi', 'pagi', 'waktu, indonesia, bagian, barat']</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>['hayuk', 'tonton', 'kopi', 'viral', 'trans', 'televisi', 'pagi', 'waktu indonesia bagi barat']</t>
         </is>
       </c>
     </row>
@@ -759,34 +808,35 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>20058</v>
+        <v>32575</v>
       </c>
       <c r="C10" t="n">
-        <v>243</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>sebenernya kumis mas adam terpaksa dicopot buat adegan ini lho gaes bakal kaya gimana ya jadinya yg auto pe</t>
-        </is>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['sebenernya', 'kumis', 'mas', 'adam', 'terpaksa', 'dicopot', 'buat', 'adegan', 'ini', 'lho', 'gaes', 'bakal', 'kaya', 'gimana', 'ya', 'jadinya', 'yg', 'auto', 'pe']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['sebenernya', 'kumis', 'mas', 'adam', 'terpaksa', 'dicopot', 'adegan', 'lho', 'gaes', 'kaya', 'gimana', 'auto', 'pe']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['sebenernya', 'kumis', 'mas', 'adam', 'paksa', 'copot', 'adegan', 'lho', 'gaes', 'kaya', 'gimana', 'auto', 'pe']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -795,30 +845,39 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>20059</v>
+        <v>32576</v>
       </c>
       <c r="C11" t="n">
-        <v>243</v>
-      </c>
-      <c r="D11" t="inlineStr"/>
+        <v>377</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>sebenernya kumis mas adam terpaksa dicopot buat adegan ini lho gaes bakal kaya gimana ya jadinya yg auto pe</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['sebenernya', 'kumis', 'mas', 'adam', 'terpaksa', 'dicopot', 'buat', 'adegan', 'ini', 'lho', 'gaes', 'bakal', 'kaya', 'gimana', 'ya', 'jadinya', 'yg', 'auto', 'pe']</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['sebenarnya', 'kumis', 'mas', 'adam', 'terpaksa', 'dicopot', 'buat', 'adegan', 'ini', 'lo', 'guys', 'bakal', 'kayak', 'bagaimana', 'ya', 'jadinya', 'yang', 'auto', 'pe']</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['kumis', 'mas', 'adam', 'terpaksa', 'dicopot', 'adegan', 'lo', 'guys', 'kayak', 'auto', 'pe']</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>['kumis', 'mas', 'adam', 'paksa', 'copot', 'adegan', 'lo', 'guys', 'kayak', 'auto', 'pe']</t>
         </is>
       </c>
     </row>
@@ -827,34 +886,35 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>20060</v>
+        <v>32577</v>
       </c>
       <c r="C12" t="n">
-        <v>243</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>seumur hidup aku kenal sm mas adam baru kali ini aku liat mas adam tanpa kumis auto terkedjoet ya ampun yaaang</t>
-        </is>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['seumur', 'hidup', 'aku', 'kenal', 'sm', 'mas', 'adam', 'baru', 'kali', 'ini', 'aku', 'liat', 'mas', 'adam', 'tanpa', 'kumis', 'auto', 'terkedjoet', 'ya', 'ampun', 'yaaang']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 21 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['seumur', 'hidup', 'kenal', 'sm', 'mas', 'adam', 'kali', 'liat', 'mas', 'adam', 'kumis', 'auto', 'terkedjoet', 'ampun', 'yaaang']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['umur', 'hidup', 'kenal', 'sm', 'mas', 'adam', 'kali', 'liat', 'mas', 'adam', 'kumis', 'auto', 'terkedjoet', 'ampun', 'yaaang']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -863,34 +923,39 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>20061</v>
+        <v>32578</v>
       </c>
       <c r="C13" t="n">
-        <v>243</v>
+        <v>377</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>sosok suami inul daratista tanpa kumis sekarang</t>
+          <t>seumur hidup aku kenal sm mas adam baru kali ini aku liat mas adam tanpa kumis auto terkedjoet ya ampun yaaang</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['sosok', 'suami', 'inul', 'daratista', 'tanpa', 'kumis', 'sekarang']</t>
+          <t>['seumur', 'hidup', 'aku', 'kenal', 'sm', 'mas', 'adam', 'baru', 'kali', 'ini', 'aku', 'liat', 'mas', 'adam', 'tanpa', 'kumis', 'auto', 'terkedjoet', 'ya', 'ampun', 'yaaang']</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['seumur', 'hidup', 'aku', 'kenal', 'sama', 'mas', 'adam', 'baru', 'kali', 'ini', 'aku', 'lihat', 'mas', 'adam', 'tanpa', 'kumis', 'auto', 'terkedjoet', 'ya', 'ampun', 'yang']</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['sosok', 'suami', 'inul', 'daratista', 'kumis']</t>
+          <t>&lt;FreqDist with 18 samples and 21 outcomes&gt;</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['sosok', 'suami', 'inul', 'daratista', 'kumis']</t>
+          <t>['seumur', 'hidup', 'kenal', 'mas', 'adam', 'kali', 'lihat', 'mas', 'adam', 'kumis', 'auto', 'terkedjoet', 'ampun']</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>['umur', 'hidup', 'kenal', 'mas', 'adam', 'kali', 'lihat', 'mas', 'adam', 'kumis', 'auto', 'terkedjoet', 'ampun']</t>
         </is>
       </c>
     </row>
@@ -899,34 +964,39 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>20062</v>
+        <v>32579</v>
       </c>
       <c r="C14" t="n">
-        <v>243</v>
+        <v>377</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>hiburan gaesss</t>
+          <t>sosok suami inul daratista tanpa kumis sekarang</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['hiburan', 'gaesss']</t>
+          <t>['sosok', 'suami', 'inul', 'daratista', 'tanpa', 'kumis', 'sekarang']</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['sosok', 'suami', 'inul', 'daratista', 'tanpa', 'kumis', 'sekarang']</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['hiburan', 'gaesss']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['hibur', 'gaesss']</t>
+          <t>['sosok', 'suami', 'inul', 'daratista', 'kumis']</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>['sosok', 'suami', 'inul', 'daratista', 'kumis']</t>
         </is>
       </c>
     </row>
@@ -935,34 +1005,39 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>20063</v>
+        <v>32580</v>
       </c>
       <c r="C15" t="n">
-        <v>243</v>
+        <v>377</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>hari ini pukul wib hanya di trans</t>
+          <t>hiburan gaesss</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['hari', 'ini', 'pukul', 'wib', 'hanya', 'di', 'trans']</t>
+          <t>['hiburan', 'gaesss']</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['hiburan', 'gaesss']</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['wib', 'trans']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['wib', 'trans']</t>
+          <t>['hiburan', 'gaesss']</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>['hibur', 'gaesss']</t>
         </is>
       </c>
     </row>
@@ -971,34 +1046,39 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>20064</v>
+        <v>32581</v>
       </c>
       <c r="C16" t="n">
-        <v>243</v>
+        <v>377</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>saya tidak pakai facebook</t>
+          <t>hari ini pukul wib hanya di trans</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['saya', 'tidak', 'pakai', 'facebook']</t>
+          <t>['hari', 'ini', 'pukul', 'wib', 'hanya', 'di', 'trans']</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['hari', 'ini', 'pukul', 'waktu, indonesia, bagian, barat', 'hanya', 'di', 'trans']</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['pakai', 'facebook']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['pakai', 'facebook']</t>
+          <t>['waktu, indonesia, bagian, barat', 'trans']</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>['waktu indonesia bagi barat', 'trans']</t>
         </is>
       </c>
     </row>
@@ -1007,34 +1087,39 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>20065</v>
+        <v>32582</v>
       </c>
       <c r="C17" t="n">
-        <v>243</v>
+        <v>377</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>jamune kurang joss iki</t>
+          <t>saya tidak pakai facebook</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>['jamune', 'kurang', 'joss', 'iki']</t>
+          <t>['saya', 'tidak', 'pakai', 'facebook']</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>['saya', 'tidak', 'pakai', 'facebook']</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>['jamune', 'joss', 'iki']</t>
-        </is>
-      </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['jamune', 'joss', 'iki']</t>
+          <t>['pakai', 'facebook']</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>['pakai', 'facebook']</t>
         </is>
       </c>
     </row>
@@ -1043,34 +1128,39 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>20066</v>
+        <v>32583</v>
       </c>
       <c r="C18" t="n">
-        <v>243</v>
+        <v>377</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>tutorial masuk rumah ketika pintu pagar di gembok</t>
+          <t>jamune kurang joss iki</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['tutorial', 'masuk', 'rumah', 'ketika', 'pintu', 'pagar', 'di', 'gembok']</t>
+          <t>['jamune', 'kurang', 'joss', 'iki']</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['jamune', 'kurang', 'joss', 'ini']</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>['tutorial', 'masuk', 'rumah', 'pintu', 'pagar', 'gembok']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>['tutorial', 'masuk', 'rumah', 'pintu', 'pagar', 'gembok']</t>
+          <t>['jamune', 'joss']</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>['jamune', 'joss']</t>
         </is>
       </c>
     </row>
@@ -1079,34 +1169,39 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>20067</v>
+        <v>32584</v>
       </c>
       <c r="C19" t="n">
-        <v>243</v>
+        <v>377</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>hahaha baiklah anak online ku</t>
+          <t>tutorial masuk rumah ketika pintu pagar di gembok</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['hahaha', 'baiklah', 'anak', 'online', 'ku']</t>
+          <t>['tutorial', 'masuk', 'rumah', 'ketika', 'pintu', 'pagar', 'di', 'gembok']</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['tutorial', 'masuk', 'rumah', 'ketika', 'pintu', 'pagar', 'di', 'gembok']</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>['hahaha', 'baiklah', 'anak', 'online', 'ku']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['hahaha', 'baik', 'anak', 'online', 'ku']</t>
+          <t>['tutorial', 'masuk', 'rumah', 'pintu', 'pagar', 'gembok']</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>['tutorial', 'masuk', 'rumah', 'pintu', 'pagar', 'gembok']</t>
         </is>
       </c>
     </row>
@@ -1115,34 +1210,39 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>20068</v>
+        <v>32585</v>
       </c>
       <c r="C20" t="n">
-        <v>243</v>
+        <v>377</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>matur suwuun</t>
+          <t>hahaha baiklah anak online ku</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['matur', 'suwuun']</t>
+          <t>['hahaha', 'baiklah', 'anak', 'online', 'ku']</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['haha', 'baiklah', 'anak', 'online', 'ku']</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>['matur', 'suwuun']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['matur', 'suwuun']</t>
+          <t>['haha', 'baiklah', 'anak', 'online', 'ku']</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>['haha', 'baik', 'anak', 'online', 'ku']</t>
         </is>
       </c>
     </row>
@@ -1151,34 +1251,39 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>20069</v>
+        <v>32586</v>
       </c>
       <c r="C21" t="n">
-        <v>243</v>
+        <v>377</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>wkwkwk sekali akustikan laah</t>
+          <t>matur suwuun</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['wkwkwk', 'sekali', 'akustikan', 'laah']</t>
+          <t>['matur', 'suwuun']</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['matur', 'suwuun']</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>['wkwkwk', 'akustikan', 'laah']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>['wkwkwk', 'akustik', 'laah']</t>
+          <t>['matur', 'suwuun']</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>['matur', 'suwuun']</t>
         </is>
       </c>
     </row>
@@ -1187,34 +1292,39 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>20070</v>
+        <v>32587</v>
       </c>
       <c r="C22" t="n">
-        <v>243</v>
+        <v>377</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>sabar ya</t>
+          <t>wkwkwk sekali akustikan laah</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>['sabar', 'ya']</t>
+          <t>['wkwkwk', 'sekali', 'akustikan', 'laah']</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['wkwk', 'sekali', 'akustikan', 'lah']</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>['sabar']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['sabar']</t>
+          <t>['wkwk', 'akustikan']</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>['wkwk', 'akustik']</t>
         </is>
       </c>
     </row>
@@ -1223,34 +1333,39 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>20071</v>
+        <v>32588</v>
       </c>
       <c r="C23" t="n">
-        <v>243</v>
+        <v>377</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>nungguin yaaaa</t>
+          <t>sabar ya</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>['nungguin', 'yaaaa']</t>
+          <t>['sabar', 'ya']</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>['sabar', 'ya']</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>['nungguin', 'yaaaa']</t>
-        </is>
-      </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>['nungguin', 'yaaaa']</t>
+          <t>['sabar']</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>['sabar']</t>
         </is>
       </c>
     </row>
@@ -1259,30 +1374,39 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>20072</v>
+        <v>32589</v>
       </c>
       <c r="C24" t="n">
-        <v>243</v>
-      </c>
-      <c r="D24" t="inlineStr"/>
+        <v>377</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>nungguin yaaaa</t>
+        </is>
+      </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['nungguin', 'yaaaa']</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['menunggu', 'ya']</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['menunggu']</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>['tunggu']</t>
         </is>
       </c>
     </row>
@@ -1291,34 +1415,35 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>20073</v>
+        <v>32590</v>
       </c>
       <c r="C25" t="n">
-        <v>243</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>tak ada ubin yg tak retak shaay wkwkwk</t>
-        </is>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>['tak', 'ada', 'ubin', 'yg', 'tak', 'retak', 'shaay', 'wkwkwk']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 8 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>['ubin', 'retak', 'shaay', 'wkwkwk']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['ubin', 'retak', 'shaay', 'wkwkwk']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1327,34 +1452,39 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>20074</v>
+        <v>32591</v>
       </c>
       <c r="C26" t="n">
-        <v>243</v>
+        <v>377</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>wkwkwk hqq banget ya</t>
+          <t>tak ada ubin yg tak retak shaay wkwkwk</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['wkwkwk', 'hqq', 'banget', 'ya']</t>
+          <t>['tak', 'ada', 'ubin', 'yg', 'tak', 'retak', 'shaay', 'wkwkwk']</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['tak', 'ada', 'ubin', 'yang', 'tak', 'retak', 'say', 'wkwk']</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>['wkwkwk', 'hqq', 'banget']</t>
+          <t>&lt;FreqDist with 7 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['wkwkwk', 'hqq', 'banget']</t>
+          <t>['ubin', 'retak', 'say', 'wkwk']</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>['ubin', 'retak', 'say', 'wkwk']</t>
         </is>
       </c>
     </row>
@@ -1363,34 +1493,39 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>20075</v>
+        <v>32592</v>
       </c>
       <c r="C27" t="n">
-        <v>243</v>
+        <v>377</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>sekali sekali posting yg romantis dulu ya tik tok inul vs adam nya nanti dulu hehehe</t>
+          <t>wkwkwk hqq banget ya</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['sekali', 'sekali', 'posting', 'yg', 'romantis', 'dulu', 'ya', 'tik', 'tok', 'inul', 'vs', 'adam', 'nya', 'nanti', 'dulu', 'hehehe']</t>
+          <t>['wkwkwk', 'hqq', 'banget', 'ya']</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
+          <t>['wkwk', 'hakiki', 'banget', 'ya']</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>['posting', 'romantis', 'tik', 'tok', 'inul', 'vs', 'adam', 'hehehe']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['posting', 'romantis', 'tik', 'tok', 'inul', 'vs', 'adam', 'hehehe']</t>
+          <t>['wkwk', 'hakiki', 'banget']</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>['wkwk', 'hakiki', 'banget']</t>
         </is>
       </c>
     </row>
@@ -1399,34 +1534,39 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>20076</v>
+        <v>32593</v>
       </c>
       <c r="C28" t="n">
-        <v>243</v>
+        <v>377</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>selamat menikmati karya baru saya cocok buat buibu yg lagi ga asik sm misuanya</t>
+          <t>sekali sekali posting yg romantis dulu ya tik tok inul vs adam nya nanti dulu hehehe</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['selamat', 'menikmati', 'karya', 'baru', 'saya', 'cocok', 'buat', 'buibu', 'yg', 'lagi', 'ga', 'asik', 'sm', 'misuanya']</t>
+          <t>['sekali', 'sekali', 'posting', 'yg', 'romantis', 'dulu', 'ya', 'tik', 'tok', 'inul', 'vs', 'adam', 'nya', 'nanti', 'dulu', 'hehehe']</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['sekali', 'sekali', 'posting', 'yang', 'romantis', 'dulu', 'ya', 'tik', 'tok', 'inul', 'lawan', 'adam', 'nya', 'nanti', 'dulu', 'hehe']</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>['selamat', 'menikmati', 'karya', 'cocok', 'buibu', 'asik', 'sm', 'misuanya']</t>
+          <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['selamat', 'nikmat', 'karya', 'cocok', 'buibu', 'asik', 'sm', 'misuanya']</t>
+          <t>['posting', 'romantis', 'tik', 'tok', 'inul', 'lawan', 'adam']</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>['posting', 'romantis', 'tik', 'tok', 'inul', 'lawan', 'adam']</t>
         </is>
       </c>
     </row>
@@ -1435,34 +1575,39 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>20077</v>
+        <v>32594</v>
       </c>
       <c r="C29" t="n">
-        <v>243</v>
+        <v>377</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>single anyarku buat emak yg lagi mumet lakinya di nikmati pelakor wkwkwkkwk nontonnya di indosiar mlm ini yo sh</t>
+          <t>selamat menikmati karya baru saya cocok buat buibu yg lagi ga asik sm misuanya</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['single', 'anyarku', 'buat', 'emak', 'yg', 'lagi', 'mumet', 'lakinya', 'di', 'nikmati', 'pelakor', 'wkwkwkkwk', 'nontonnya', 'di', 'indosiar', 'mlm', 'ini', 'yo', 'sh']</t>
+          <t>['selamat', 'menikmati', 'karya', 'baru', 'saya', 'cocok', 'buat', 'buibu', 'yg', 'lagi', 'ga', 'asik', 'sm', 'misuanya']</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
+          <t>['selamat', 'menikmati', 'karya', 'baru', 'saya', 'cocok', 'buat', 'buibu', 'yang', 'lagi', 'tidak', 'asyik', 'sama', 'misuanya']</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>['single', 'anyarku', 'emak', 'mumet', 'lakinya', 'nikmati', 'pelakor', 'wkwkwkkwk', 'nontonnya', 'indosiar', 'mlm', 'yo', 'sh']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['single', 'anyar', 'emak', 'mumet', 'laki', 'nikmat', 'pelakor', 'wkwkwkkwk', 'nontonnya', 'indosiar', 'mlm', 'yo', 'sh']</t>
+          <t>['selamat', 'menikmati', 'karya', 'cocok', 'buibu', 'asyik', 'misuanya']</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>['selamat', 'nikmat', 'karya', 'cocok', 'buibu', 'asyik', 'misuanya']</t>
         </is>
       </c>
     </row>
@@ -1471,34 +1616,39 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>20078</v>
+        <v>32595</v>
       </c>
       <c r="C30" t="n">
-        <v>243</v>
+        <v>377</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>top grup lida indosiar malam ini live pukul wib</t>
+          <t>single anyarku buat emak yg lagi mumet lakinya di nikmati pelakor wkwkwkkwk nontonnya di indosiar mlm ini yo sh</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>['top', 'grup', 'lida', 'indosiar', 'malam', 'ini', 'live', 'pukul', 'wib']</t>
+          <t>['single', 'anyarku', 'buat', 'emak', 'yg', 'lagi', 'mumet', 'lakinya', 'di', 'nikmati', 'pelakor', 'wkwkwkkwk', 'nontonnya', 'di', 'indosiar', 'mlm', 'ini', 'yo', 'sh']</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['single', 'anyarku', 'buat', 'emak', 'yang', 'lagi', 'mumet', 'lakinya', 'di', 'nikmati', 'perebut, laki, orang', 'wkwkwkkwk', 'nontonnya', 'di', 'indosiar', 'malam', 'ini', 'iya', 'sh']</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>['top', 'grup', 'lida', 'indosiar', 'malam', 'live', 'wib']</t>
+          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['top', 'grup', 'lida', 'indosiar', 'malam', 'live', 'wib']</t>
+          <t>['single', 'anyarku', 'emak', 'mumet', 'lakinya', 'nikmati', 'perebut, laki, orang', 'wkwkwkkwk', 'nontonnya', 'indosiar', 'malam', 'iya', 'sh']</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>['single', 'anyar', 'emak', 'mumet', 'laki', 'nikmat', 'rebut laki orang', 'wkwkwkkwk', 'nontonnya', 'indosiar', 'malam', 'iya', 'sh']</t>
         </is>
       </c>
     </row>
@@ -1507,34 +1657,39 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>20079</v>
+        <v>32596</v>
       </c>
       <c r="C31" t="n">
-        <v>243</v>
+        <v>377</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>mikir psbb mumet mwnding lihat ini wae mood boster gaess</t>
+          <t>top grup lida indosiar malam ini live pukul wib</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>['mikir', 'psbb', 'mumet', 'mwnding', 'lihat', 'ini', 'wae', 'mood', 'boster', 'gaess']</t>
+          <t>['top', 'grup', 'lida', 'indosiar', 'malam', 'ini', 'live', 'pukul', 'wib']</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['top', 'grup', 'lida', 'indosiar', 'malam', 'ini', 'live', 'pukul', 'waktu, indonesia, bagian, barat']</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>['mikir', 'psbb', 'mumet', 'mwnding', 'lihat', 'wae', 'mood', 'boster', 'gaess']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['mikir', 'psbb', 'mumet', 'mwnding', 'lihat', 'wae', 'mood', 'boster', 'gaess']</t>
+          <t>['top', 'grup', 'lida', 'indosiar', 'malam', 'live', 'waktu, indonesia, bagian, barat']</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>['top', 'grup', 'lida', 'indosiar', 'malam', 'live', 'waktu indonesia bagi barat']</t>
         </is>
       </c>
     </row>
@@ -1543,34 +1698,39 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>20080</v>
+        <v>32597</v>
       </c>
       <c r="C32" t="n">
-        <v>243</v>
+        <v>377</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>jadi istri ga boleh lemahkudu byk ide kreativ</t>
+          <t>mikir psbb mumet mwnding lihat ini wae mood boster gaess</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>['jadi', 'istri', 'ga', 'boleh', 'lemahkudu', 'byk', 'ide', 'kreativ']</t>
+          <t>['mikir', 'psbb', 'mumet', 'mwnding', 'lihat', 'ini', 'wae', 'mood', 'boster', 'gaess']</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['pikir', 'psbb', 'mumet', 'mwnding', 'lihat', 'ini', 'saja', 'suasana, hati', 'boster', 'guys']</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>['istri', 'lemahkudu', 'byk', 'ide', 'kreativ']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['istri', 'lemahkudu', 'byk', 'ide', 'kreativ']</t>
+          <t>['pikir', 'psbb', 'mumet', 'mwnding', 'lihat', 'suasana, hati', 'boster', 'guys']</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>['pikir', 'psbb', 'mumet', 'mwnding', 'lihat', 'suasana hati', 'boster', 'guys']</t>
         </is>
       </c>
     </row>
@@ -1579,34 +1739,39 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>20081</v>
+        <v>32598</v>
       </c>
       <c r="C33" t="n">
-        <v>243</v>
+        <v>377</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>jadi nih kita cerai</t>
+          <t>jadi istri ga boleh lemahkudu byk ide kreativ</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>['jadi', 'nih', 'kita', 'cerai']</t>
+          <t>['jadi', 'istri', 'ga', 'boleh', 'lemahkudu', 'byk', 'ide', 'kreativ']</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['jadi', 'istri', 'tidak', 'boleh', 'lemahkudu', 'banyak', 'ide', 'kreativ']</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>['cerai']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['cerai']</t>
+          <t>['istri', 'lemahkudu', 'ide', 'kreativ']</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>['istri', 'lemahkudu', 'ide', 'kreativ']</t>
         </is>
       </c>
     </row>
@@ -1615,34 +1780,39 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>20082</v>
+        <v>32599</v>
       </c>
       <c r="C34" t="n">
-        <v>243</v>
+        <v>377</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>suami gak sopanbininya di suruh masuk koper</t>
+          <t>jadi nih kita cerai</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>['suami', 'gak', 'sopanbininya', 'di', 'suruh', 'masuk', 'koper']</t>
+          <t>['jadi', 'nih', 'kita', 'cerai']</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['jadi', 'nih', 'kita', 'cerai']</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>['suami', 'sopanbininya', 'suruh', 'masuk', 'koper']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['suami', 'sopanbininya', 'suruh', 'masuk', 'koper']</t>
+          <t>['cerai']</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>['cerai']</t>
         </is>
       </c>
     </row>
@@ -1651,34 +1821,39 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>20083</v>
+        <v>32600</v>
       </c>
       <c r="C35" t="n">
-        <v>243</v>
+        <v>377</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>baca yg bener jgn tengok tuh akibatnya klo ga fokus</t>
+          <t>suami gak sopanbininya di suruh masuk koper</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>['baca', 'yg', 'bener', 'jgn', 'tengok', 'tuh', 'akibatnya', 'klo', 'ga', 'fokus']</t>
+          <t>['suami', 'gak', 'sopanbininya', 'di', 'suruh', 'masuk', 'koper']</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['suami', 'tidak', 'sopanbininya', 'di', 'suruh', 'masuk', 'koper']</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>['baca', 'bener', 'tengok', 'akibatnya', 'fokus']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['baca', 'bener', 'tengok', 'akibat', 'fokus']</t>
+          <t>['suami', 'sopanbininya', 'suruh', 'masuk', 'koper']</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>['suami', 'sopanbininya', 'suruh', 'masuk', 'koper']</t>
         </is>
       </c>
     </row>
@@ -1687,34 +1862,39 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>20084</v>
+        <v>32601</v>
       </c>
       <c r="C36" t="n">
-        <v>243</v>
+        <v>377</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>rt with  humble diva inul</t>
+          <t>baca yg bener jgn tengok tuh akibatnya klo ga fokus</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>['rt', 'with', 'humble', 'diva', 'inul']</t>
+          <t>['baca', 'yg', 'bener', 'jgn', 'tengok', 'tuh', 'akibatnya', 'klo', 'ga', 'fokus']</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['baca', 'yang', 'benar', 'jangan', 'tengok', 'itu', 'akibatnya', 'kalau', 'tidak', 'fokus']</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>['with', 'humble', 'diva', 'inul']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['with', 'humble', 'diva', 'inul']</t>
+          <t>['baca', 'tengok', 'akibatnya', 'fokus']</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>['baca', 'tengok', 'akibat', 'fokus']</t>
         </is>
       </c>
     </row>
@@ -1723,34 +1903,39 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>20085</v>
+        <v>32602</v>
       </c>
       <c r="C37" t="n">
-        <v>243</v>
+        <v>377</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>rt inul fokus jgn lihat mobilnya lihat posenya split diatas mobil tinggi panas tanpa matras dan keras dgn posisi balance</t>
+          <t>rt with  humble diva inul</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>['rt', 'inul', 'fokus', 'jgn', 'lihat', 'mobilnya', 'lihat', 'posenya', 'split', 'diatas', 'mobil', 'tinggi', 'panas', 'tanpa', 'matras', 'dan', 'keras', 'dgn', 'posisi', 'balance']</t>
+          <t>['rt', 'with', 'humble', 'diva', 'inul']</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
+          <t>['rt', 'dengan', 'humble', 'diva', 'inul']</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>['inul', 'fokus', 'lihat', 'mobilnya', 'lihat', 'posenya', 'split', 'diatas', 'mobil', 'panas', 'matras', 'keras', 'posisi', 'balance']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['inul', 'fokus', 'lihat', 'mobil', 'lihat', 'pose', 'split', 'atas', 'mobil', 'panas', 'matras', 'keras', 'posisi', 'balance']</t>
+          <t>['humble', 'diva', 'inul']</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>['humble', 'diva', 'inul']</t>
         </is>
       </c>
     </row>
@@ -1759,34 +1944,39 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>20086</v>
+        <v>32603</v>
       </c>
       <c r="C38" t="n">
-        <v>243</v>
+        <v>377</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>fokus jgn lihat mobilnya lihat posenya split diatas mobil tinggi panas tanpa matras dan keras dgn posisi balan</t>
+          <t>rt inul fokus jgn lihat mobilnya lihat posenya split diatas mobil tinggi panas tanpa matras dan keras dgn posisi balance</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>['fokus', 'jgn', 'lihat', 'mobilnya', 'lihat', 'posenya', 'split', 'diatas', 'mobil', 'tinggi', 'panas', 'tanpa', 'matras', 'dan', 'keras', 'dgn', 'posisi', 'balan']</t>
+          <t>['rt', 'inul', 'fokus', 'jgn', 'lihat', 'mobilnya', 'lihat', 'posenya', 'split', 'diatas', 'mobil', 'tinggi', 'panas', 'tanpa', 'matras', 'dan', 'keras', 'dgn', 'posisi', 'balance']</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['rt', 'inul', 'fokus', 'jangan', 'lihat', 'mobilnya', 'lihat', 'posenya', 'split', 'di, atas', 'mobil', 'tinggi', 'panas', 'tanpa', 'matras', 'dan', 'keras', 'dengan', 'posisi', 'balance']</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>['fokus', 'lihat', 'mobilnya', 'lihat', 'posenya', 'split', 'diatas', 'mobil', 'panas', 'matras', 'keras', 'posisi', 'balan']</t>
+          <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['fokus', 'lihat', 'mobil', 'lihat', 'pose', 'split', 'atas', 'mobil', 'panas', 'matras', 'keras', 'posisi', 'balan']</t>
+          <t>['inul', 'fokus', 'lihat', 'mobilnya', 'lihat', 'posenya', 'split', 'di, atas', 'mobil', 'panas', 'matras', 'keras', 'posisi', 'balance']</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>['inul', 'fokus', 'lihat', 'mobil', 'lihat', 'pose', 'split', 'di atas', 'mobil', 'panas', 'matras', 'keras', 'posisi', 'balance']</t>
         </is>
       </c>
     </row>
@@ -1795,34 +1985,39 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>20087</v>
+        <v>32604</v>
       </c>
       <c r="C39" t="n">
-        <v>243</v>
+        <v>377</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>malam ini hanya di trans jgn lupa nonton ya jam wib</t>
+          <t>fokus jgn lihat mobilnya lihat posenya split diatas mobil tinggi panas tanpa matras dan keras dgn posisi balan</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>['malam', 'ini', 'hanya', 'di', 'trans', 'jgn', 'lupa', 'nonton', 'ya', 'jam', 'wib']</t>
+          <t>['fokus', 'jgn', 'lihat', 'mobilnya', 'lihat', 'posenya', 'split', 'diatas', 'mobil', 'tinggi', 'panas', 'tanpa', 'matras', 'dan', 'keras', 'dgn', 'posisi', 'balan']</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['fokus', 'jangan', 'lihat', 'mobilnya', 'lihat', 'posenya', 'split', 'di, atas', 'mobil', 'tinggi', 'panas', 'tanpa', 'matras', 'dan', 'keras', 'dengan', 'posisi', 'balan']</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>['malam', 'trans', 'lupa', 'nonton', 'jam', 'wib']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>['malam', 'trans', 'lupa', 'nonton', 'jam', 'wib']</t>
+          <t>['fokus', 'lihat', 'mobilnya', 'lihat', 'posenya', 'split', 'di, atas', 'mobil', 'panas', 'matras', 'keras', 'posisi', 'balan']</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>['fokus', 'lihat', 'mobil', 'lihat', 'pose', 'split', 'di atas', 'mobil', 'panas', 'matras', 'keras', 'posisi', 'balan']</t>
         </is>
       </c>
     </row>
@@ -1831,34 +2026,39 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>20088</v>
+        <v>32605</v>
       </c>
       <c r="C40" t="n">
-        <v>243</v>
+        <v>377</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>bayiku minta susukasih yg jumbo ya sayang</t>
+          <t>malam ini hanya di trans jgn lupa nonton ya jam wib</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>['bayiku', 'minta', 'susukasih', 'yg', 'jumbo', 'ya', 'sayang']</t>
+          <t>['malam', 'ini', 'hanya', 'di', 'trans', 'jgn', 'lupa', 'nonton', 'ya', 'jam', 'wib']</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['malam', 'ini', 'hanya', 'di', 'trans', 'jangan', 'lupa', 'menonton', 'ya', 'jam', 'waktu, indonesia, bagian, barat']</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>['bayiku', 'susukasih', 'jumbo', 'sayang']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>['bayi', 'susukasih', 'jumbo', 'sayang']</t>
+          <t>['malam', 'trans', 'lupa', 'menonton', 'jam', 'waktu, indonesia, bagian, barat']</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>['malam', 'trans', 'lupa', 'tonton', 'jam', 'waktu indonesia bagi barat']</t>
         </is>
       </c>
     </row>
@@ -1867,34 +2067,39 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>20089</v>
+        <v>32606</v>
       </c>
       <c r="C41" t="n">
-        <v>243</v>
+        <v>377</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>clue ke dari</t>
+          <t>bayiku minta susukasih yg jumbo ya sayang</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>['clue', 'ke', 'dari']</t>
+          <t>['bayiku', 'minta', 'susukasih', 'yg', 'jumbo', 'ya', 'sayang']</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['bayiku', 'meminta', 'susukasih', 'yang', 'jumbo', 'ya', 'sayang']</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>['clue']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>['clue']</t>
+          <t>['bayiku', 'susukasih', 'jumbo', 'sayang']</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>['bayi', 'susukasih', 'jumbo', 'sayang']</t>
         </is>
       </c>
     </row>
@@ -1903,10 +2108,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>20090</v>
+        <v>32607</v>
       </c>
       <c r="C42" t="n">
-        <v>243</v>
+        <v>377</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1920,15 +2125,20 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
+          <t>['clue', 'ke', 'dari']</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>['clue']</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>['clue']</t>
         </is>
@@ -1939,34 +2149,39 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>20091</v>
+        <v>32608</v>
       </c>
       <c r="C43" t="n">
-        <v>243</v>
+        <v>377</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>clue ke dari masih ada clue lagi</t>
+          <t>clue ke dari</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>['clue', 'ke', 'dari', 'masih', 'ada', 'clue', 'lagi']</t>
+          <t>['clue', 'ke', 'dari']</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 7 outcomes&gt;</t>
+          <t>['clue', 'ke', 'dari']</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>['clue', 'clue']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>['clue', 'clue']</t>
+          <t>['clue']</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>['clue']</t>
         </is>
       </c>
     </row>
@@ -1975,34 +2190,39 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>20092</v>
+        <v>32609</v>
       </c>
       <c r="C44" t="n">
-        <v>243</v>
+        <v>377</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>clue ke dari monggo ditebak</t>
+          <t>clue ke dari masih ada clue lagi</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>['clue', 'ke', 'dari', 'monggo', 'ditebak']</t>
+          <t>['clue', 'ke', 'dari', 'masih', 'ada', 'clue', 'lagi']</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['clue', 'ke', 'dari', 'masih', 'ada', 'clue', 'lagi']</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>['clue', 'monggo', 'ditebak']</t>
+          <t>&lt;FreqDist with 6 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['clue', 'monggo', 'tebak']</t>
+          <t>['clue', 'clue']</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>['clue', 'clue']</t>
         </is>
       </c>
     </row>
@@ -2011,34 +2231,39 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>20093</v>
+        <v>32610</v>
       </c>
       <c r="C45" t="n">
-        <v>243</v>
+        <v>377</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>bukan acara tv resto bisa jadi</t>
+          <t>clue ke dari monggo ditebak</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>['bukan', 'acara', 'tv', 'resto', 'bisa', 'jadi']</t>
+          <t>['clue', 'ke', 'dari', 'monggo', 'ditebak']</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['clue', 'ke', 'dari', 'monggo', 'ditebak']</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>['acara', 'tv', 'resto']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>['acara', 'tv', 'resto']</t>
+          <t>['clue', 'monggo', 'ditebak']</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>['clue', 'monggo', 'tebak']</t>
         </is>
       </c>
     </row>
@@ -2047,34 +2272,39 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>20094</v>
+        <v>32611</v>
       </c>
       <c r="C46" t="n">
-        <v>243</v>
+        <v>377</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>coba di tebak hehehe</t>
+          <t>bukan acara tv resto bisa jadi</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>['coba', 'di', 'tebak', 'hehehe']</t>
+          <t>['bukan', 'acara', 'tv', 'resto', 'bisa', 'jadi']</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['bukan', 'acara', 'televisi', 'resto', 'bisa', 'jadi']</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>['coba', 'tebak', 'hehehe']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>['coba', 'tebak', 'hehehe']</t>
+          <t>['acara', 'televisi', 'resto']</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>['acara', 'televisi', 'resto']</t>
         </is>
       </c>
     </row>
@@ -2083,34 +2313,39 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>20095</v>
+        <v>32612</v>
       </c>
       <c r="C47" t="n">
-        <v>243</v>
+        <v>377</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>clue ke enak dimakan panas pake nasi lebih mantep nama makanannya apa ya yang pasti bukan klepon lho yaaa</t>
+          <t>coba di tebak hehehe</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>['clue', 'ke', 'enak', 'dimakan', 'panas', 'pake', 'nasi', 'lebih', 'mantep', 'nama', 'makanannya', 'apa', 'ya', 'yang', 'pasti', 'bukan', 'klepon', 'lho', 'yaaa']</t>
+          <t>['coba', 'di', 'tebak', 'hehehe']</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
+          <t>['coba', 'di', 'tebak', 'hehe']</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>['clue', 'enak', 'dimakan', 'panas', 'pake', 'nasi', 'mantep', 'nama', 'makanannya', 'klepon', 'lho', 'yaaa']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>['clue', 'enak', 'makan', 'panas', 'pake', 'nasi', 'mantep', 'nama', 'makan', 'klepon', 'lho', 'yaaa']</t>
+          <t>['coba', 'tebak']</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>['coba', 'tebak']</t>
         </is>
       </c>
     </row>
@@ -2119,34 +2354,39 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>20096</v>
+        <v>32613</v>
       </c>
       <c r="C48" t="n">
-        <v>243</v>
+        <v>377</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>hehe tebak dulu aja nnt masih ada clue selanjutnya</t>
+          <t>clue ke enak dimakan panas pake nasi lebih mantep nama makanannya apa ya yang pasti bukan klepon lho yaaa</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>['hehe', 'tebak', 'dulu', 'aja', 'nnt', 'masih', 'ada', 'clue', 'selanjutnya']</t>
+          <t>['clue', 'ke', 'enak', 'dimakan', 'panas', 'pake', 'nasi', 'lebih', 'mantep', 'nama', 'makanannya', 'apa', 'ya', 'yang', 'pasti', 'bukan', 'klepon', 'lho', 'yaaa']</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['clue', 'ke', 'enak', 'dimakan', 'panas', 'pakai', 'nasi', 'lebih', 'mantap', 'nama', 'makanannya', 'apa', 'ya', 'yang', 'pasti', 'bukan', 'klepon', 'lo', 'ya']</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>['tebak', 'nnt', 'clue']</t>
+          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>['tebak', 'nnt', 'clue']</t>
+          <t>['clue', 'enak', 'dimakan', 'panas', 'pakai', 'nasi', 'mantap', 'nama', 'makanannya', 'klepon', 'lo']</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>['clue', 'enak', 'makan', 'panas', 'pakai', 'nasi', 'mantap', 'nama', 'makan', 'klepon', 'lo']</t>
         </is>
       </c>
     </row>
@@ -2155,34 +2395,39 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>20097</v>
+        <v>32614</v>
       </c>
       <c r="C49" t="n">
-        <v>243</v>
+        <v>377</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>koyo opo rasane klepon isi rawon</t>
+          <t>hehe tebak dulu aja nnt masih ada clue selanjutnya</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>['koyo', 'opo', 'rasane', 'klepon', 'isi', 'rawon']</t>
+          <t>['hehe', 'tebak', 'dulu', 'aja', 'nnt', 'masih', 'ada', 'clue', 'selanjutnya']</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['hehe', 'tebak', 'dulu', 'saja', 'nanti', 'masih', 'ada', 'clue', 'selanjutnya']</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>['koyo', 'opo', 'rasane', 'klepon', 'isi', 'rawon']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>['koyo', 'opo', 'rasane', 'klepon', 'isi', 'rawon']</t>
+          <t>['tebak', 'clue']</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>['tebak', 'clue']</t>
         </is>
       </c>
     </row>
@@ -2191,34 +2436,39 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>20098</v>
+        <v>32615</v>
       </c>
       <c r="C50" t="n">
-        <v>243</v>
+        <v>377</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>wkwkwk</t>
+          <t>koyo opo rasane klepon isi rawon</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>['wkwkwk']</t>
+          <t>['koyo', 'opo', 'rasane', 'klepon', 'isi', 'rawon']</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['koyo', 'apa', 'rasanya', 'klepon', 'isi', 'rawon']</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>['wkwkwk']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>['wkwkwk']</t>
+          <t>['koyo', 'klepon', 'isi', 'rawon']</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>['koyo', 'klepon', 'isi', 'rawon']</t>
         </is>
       </c>
     </row>
@@ -2227,34 +2477,39 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>20099</v>
+        <v>32616</v>
       </c>
       <c r="C51" t="n">
-        <v>243</v>
+        <v>377</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>rame klepon ada apa dengan klepon tebaktebakan yuk kira mau bikin masakan apa tgl jul</t>
+          <t>wkwkwk</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>['rame', 'klepon', 'ada', 'apa', 'dengan', 'klepon', 'tebaktebakan', 'yuk', 'kira', 'mau', 'bikin', 'masakan', 'apa', 'tgl', 'jul']</t>
+          <t>['wkwkwk']</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 15 outcomes&gt;</t>
+          <t>['wkwk']</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>['rame', 'klepon', 'klepon', 'tebaktebakan', 'yuk', 'masakan', 'tgl', 'jul']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>['rame', 'klepon', 'klepon', 'tebaktebakan', 'yuk', 'masakan', 'tgl', 'jul']</t>
+          <t>['wkwk']</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>['wkwk']</t>
         </is>
       </c>
     </row>
@@ -2263,34 +2518,39 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>20100</v>
+        <v>32617</v>
       </c>
       <c r="C52" t="n">
-        <v>243</v>
+        <v>377</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>bismillah dapur jenk  inul juli</t>
+          <t>rame klepon ada apa dengan klepon tebaktebakan yuk kira mau bikin masakan apa tgl jul</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>['bismillah', 'dapur', 'jenk', 'inul', 'juli']</t>
+          <t>['rame', 'klepon', 'ada', 'apa', 'dengan', 'klepon', 'tebaktebakan', 'yuk', 'kira', 'mau', 'bikin', 'masakan', 'apa', 'tgl', 'jul']</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['ramai', 'klepon', 'ada', 'apa', 'dengan', 'klepon', 'tebaktebakan', 'yuk', 'kira', 'mau', 'bikin', 'masakan', 'apa', 'tanggal', 'jul']</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>['bismillah', 'dapur', 'jenk', 'inul', 'juli']</t>
+          <t>&lt;FreqDist with 13 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>['bismillah', 'dapur', 'jenk', 'inul', 'juli']</t>
+          <t>['ramai', 'klepon', 'klepon', 'tebaktebakan', 'yuk', 'masakan', 'tanggal', 'jul']</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>['ramai', 'klepon', 'klepon', 'tebaktebakan', 'yuk', 'masakan', 'tanggal', 'jul']</t>
         </is>
       </c>
     </row>
@@ -2299,34 +2559,39 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>20101</v>
+        <v>32618</v>
       </c>
       <c r="C53" t="n">
-        <v>243</v>
+        <v>377</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>kira berani gak melaney ricardo melintir kumis mas adam hihihi nonton aja sebentar lagi</t>
+          <t>bismillah dapur jenk  inul juli</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>['kira', 'berani', 'gak', 'melaney', 'ricardo', 'melintir', 'kumis', 'mas', 'adam', 'hihihi', 'nonton', 'aja', 'sebentar', 'lagi']</t>
+          <t>['bismillah', 'dapur', 'jenk', 'inul', 'juli']</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['bismillah', 'dapur', 'jenk', 'inul', 'juli']</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>['berani', 'melaney', 'ricardo', 'melintir', 'kumis', 'mas', 'adam', 'hihihi', 'nonton', 'sebentar']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>['berani', 'melaney', 'ricardo', 'melintir', 'kumis', 'mas', 'adam', 'hihihi', 'nonton', 'sebentar']</t>
+          <t>['bismillah', 'dapur', 'jenk', 'inul', 'juli']</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>['bismillah', 'dapur', 'jenk', 'inul', 'juli']</t>
         </is>
       </c>
     </row>
@@ -2335,30 +2600,39 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>20102</v>
+        <v>32619</v>
       </c>
       <c r="C54" t="n">
-        <v>243</v>
-      </c>
-      <c r="D54" t="inlineStr"/>
+        <v>377</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>kira berani gak melaney ricardo melintir kumis mas adam hihihi nonton aja sebentar lagi</t>
+        </is>
+      </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['kira', 'berani', 'gak', 'melaney', 'ricardo', 'melintir', 'kumis', 'mas', 'adam', 'hihihi', 'nonton', 'aja', 'sebentar', 'lagi']</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['kira', 'berani', 'tidak', 'melaney', 'ricardo', 'melintir', 'kumis', 'mas', 'adam', 'hihi', 'menonton', 'saja', 'sebentar', 'lagi']</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['berani', 'melaney', 'ricardo', 'melintir', 'kumis', 'mas', 'adam', 'hihi', 'menonton', 'sebentar']</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>['berani', 'melaney', 'ricardo', 'melintir', 'kumis', 'mas', 'adam', 'hihi', 'tonton', 'sebentar']</t>
         </is>
       </c>
     </row>
@@ -2367,34 +2641,35 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>20103</v>
+        <v>32620</v>
       </c>
       <c r="C55" t="n">
-        <v>243</v>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>jabodetabek dulu sambil tunggu buka luar kota masih tunggu reda covid semoga bs segera</t>
-        </is>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>['jabodetabek', 'dulu', 'sambil', 'tunggu', 'buka', 'luar', 'kota', 'masih', 'tunggu', 'reda', 'covid', 'semoga', 'bs', 'segera']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>['jabodetabek', 'tunggu', 'buka', 'kota', 'tunggu', 'reda', 'covid', 'semoga', 'bs']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>['jabodetabek', 'tunggu', 'buka', 'kota', 'tunggu', 'reda', 'covid', 'moga', 'bs']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2403,34 +2678,39 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>20104</v>
+        <v>32621</v>
       </c>
       <c r="C56" t="n">
-        <v>243</v>
+        <v>377</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>the new inul vizta</t>
+          <t>jabodetabek dulu sambil tunggu buka luar kota masih tunggu reda covid semoga bs segera</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>['the', 'new', 'inul', 'vizta']</t>
+          <t>['jabodetabek', 'dulu', 'sambil', 'tunggu', 'buka', 'luar', 'kota', 'masih', 'tunggu', 'reda', 'covid', 'semoga', 'bs', 'segera']</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['jabodetabek', 'dulu', 'sambil', 'tunggu', 'buka', 'luar', 'kota', 'masih', 'tunggu', 'reda', 'covid', 'semoga', 'bisa', 'segera']</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>['the', 'new', 'inul', 'vizta']</t>
+          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>['the', 'new', 'inul', 'vizta']</t>
+          <t>['jabodetabek', 'tunggu', 'buka', 'kota', 'tunggu', 'reda', 'covid', 'semoga']</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>['jabodetabek', 'tunggu', 'buka', 'kota', 'tunggu', 'reda', 'covid', 'moga']</t>
         </is>
       </c>
     </row>
@@ -2439,34 +2719,39 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>20105</v>
+        <v>32622</v>
       </c>
       <c r="C57" t="n">
-        <v>243</v>
+        <v>377</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>wakakakakkk</t>
+          <t>the new inul vizta</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>['wakakakakkk']</t>
+          <t>['the', 'new', 'inul', 'vizta']</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['the', 'new', 'inul', 'vizta']</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>['wakakakakkk']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>['wakakakakkk']</t>
+          <t>['the', 'new', 'inul', 'vizta']</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>['the', 'new', 'inul', 'vizta']</t>
         </is>
       </c>
     </row>
@@ -2475,34 +2760,39 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>20106</v>
+        <v>32623</v>
       </c>
       <c r="C58" t="n">
-        <v>243</v>
+        <v>377</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>hahahaha makasih mas bintang waduh suamiku populer alamat kalah ngetop aku wakakakkaak</t>
+          <t>wakakakakkk</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>['hahahaha', 'makasih', 'mas', 'bintang', 'waduh', 'suamiku', 'populer', 'alamat', 'kalah', 'ngetop', 'aku', 'wakakakkaak']</t>
+          <t>['wakakakakkk']</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>['wakakakakkk']</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>['hahahaha', 'makasih', 'mas', 'bintang', 'suamiku', 'populer', 'alamat', 'kalah', 'ngetop', 'wakakakkaak']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>['hahahaha', 'makasih', 'mas', 'bintang', 'suami', 'populer', 'alamat', 'kalah', 'ngetop', 'wakakakkaak']</t>
+          <t>['wakakakakkk']</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>['wakakakakkk']</t>
         </is>
       </c>
     </row>
@@ -2511,34 +2801,39 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>20107</v>
+        <v>32624</v>
       </c>
       <c r="C59" t="n">
-        <v>243</v>
+        <v>377</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>coba pikir baekanaknya berani bilg begitu emg ada waktu itu hehehe klo hanya dengar dr katanya</t>
+          <t>hahahaha makasih mas bintang waduh suamiku populer alamat kalah ngetop aku wakakakkaak</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>['coba', 'pikir', 'baekanaknya', 'berani', 'bilg', 'begitu', 'emg', 'ada', 'waktu', 'itu', 'hehehe', 'klo', 'hanya', 'dengar', 'dr', 'katanya']</t>
+          <t>['hahahaha', 'makasih', 'mas', 'bintang', 'waduh', 'suamiku', 'populer', 'alamat', 'kalah', 'ngetop', 'aku', 'wakakakkaak']</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['haha', 'terima, kasih', 'mas', 'bintang', 'waduh', 'suamiku', 'populer', 'alamat', 'kalah', 'ngetop', 'aku', 'wakakakkaak']</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>['coba', 'pikir', 'baekanaknya', 'berani', 'bilg', 'emg', 'hehehe', 'dengar', 'dr']</t>
+          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>['coba', 'pikir', 'baekanaknya', 'berani', 'bilg', 'emg', 'hehehe', 'dengar', 'dr']</t>
+          <t>['haha', 'terima, kasih', 'mas', 'bintang', 'suamiku', 'populer', 'alamat', 'kalah', 'ngetop', 'wakakakkaak']</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>['haha', 'terima kasih', 'mas', 'bintang', 'suami', 'populer', 'alamat', 'kalah', 'ngetop', 'wakakakkaak']</t>
         </is>
       </c>
     </row>
@@ -2547,34 +2842,39 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>20108</v>
+        <v>32625</v>
       </c>
       <c r="C60" t="n">
-        <v>243</v>
+        <v>377</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>ya biarkan saja hanya tuhan yg tausaksinya byk yg msh hidup mustinya klo mau jujur tanya sj sm</t>
+          <t>coba pikir baekanaknya berani bilg begitu emg ada waktu itu hehehe klo hanya dengar dr katanya</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>['ya', 'biarkan', 'saja', 'hanya', 'tuhan', 'yg', 'tausaksinya', 'byk', 'yg', 'msh', 'hidup', 'mustinya', 'klo', 'mau', 'jujur', 'tanya', 'sj', 'sm']</t>
+          <t>['coba', 'pikir', 'baekanaknya', 'berani', 'bilg', 'begitu', 'emg', 'ada', 'waktu', 'itu', 'hehehe', 'klo', 'hanya', 'dengar', 'dr', 'katanya']</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['coba', 'pikir', 'baekanaknya', 'berani', 'bilg', 'begitu', 'memang', 'ada', 'waktu', 'itu', 'hehe', 'kalau', 'hanya', 'dengar', 'dari', 'katanya']</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>['biarkan', 'tuhan', 'tausaksinya', 'byk', 'msh', 'hidup', 'mustinya', 'jujur', 'sj', 'sm']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>['biar', 'tuhan', 'tausaksinya', 'byk', 'msh', 'hidup', 'mustinya', 'jujur', 'sj', 'sm']</t>
+          <t>['coba', 'pikir', 'baekanaknya', 'berani', 'bilg', 'dengar']</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>['coba', 'pikir', 'baekanaknya', 'berani', 'bilg', 'dengar']</t>
         </is>
       </c>
     </row>
@@ -2583,34 +2883,39 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>20109</v>
+        <v>32626</v>
       </c>
       <c r="C61" t="n">
-        <v>243</v>
+        <v>377</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>hahahaha</t>
+          <t>ya biarkan saja hanya tuhan yg tausaksinya byk yg msh hidup mustinya klo mau jujur tanya sj sm</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>['hahahaha']</t>
+          <t>['ya', 'biarkan', 'saja', 'hanya', 'tuhan', 'yg', 'tausaksinya', 'byk', 'yg', 'msh', 'hidup', 'mustinya', 'klo', 'mau', 'jujur', 'tanya', 'sj', 'sm']</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['ya', 'biarkan', 'saja', 'hanya', 'tuhan', 'yang', 'tausaksinya', 'banyak', 'yang', 'masih', 'hidup', 'mustinya', 'kalau', 'mau', 'jujur', 'tanya', 'saja', 'sama']</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>['hahahaha']</t>
+          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>['hahahaha']</t>
+          <t>['biarkan', 'tuhan', 'tausaksinya', 'hidup', 'mustinya', 'jujur']</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>['biar', 'tuhan', 'tausaksinya', 'hidup', 'mustinya', 'jujur']</t>
         </is>
       </c>
     </row>
@@ -2619,34 +2924,39 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>20110</v>
+        <v>32627</v>
       </c>
       <c r="C62" t="n">
-        <v>243</v>
+        <v>377</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>huhuhu aku jg dah ga sabar pengen buka inul vizta tp blm boleh hiks</t>
+          <t>hahahaha</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>['huhuhu', 'aku', 'jg', 'dah', 'ga', 'sabar', 'pengen', 'buka', 'inul', 'vizta', 'tp', 'blm', 'boleh', 'hiks']</t>
+          <t>['hahahaha']</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['haha']</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>['huhuhu', 'jg', 'dah', 'sabar', 'pengen', 'buka', 'inul', 'vizta', 'tp', 'blm', 'hiks']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>['huhuhu', 'jg', 'dah', 'sabar', 'ken', 'buka', 'inul', 'vizta', 'tp', 'blm', 'hiks']</t>
+          <t>['haha']</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>['haha']</t>
         </is>
       </c>
     </row>
@@ -2655,34 +2965,39 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>20111</v>
+        <v>32628</v>
       </c>
       <c r="C63" t="n">
-        <v>243</v>
+        <v>377</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>wkwkwk boleh dicoba monggo aku baru buka inul vizta di summarecon bekasi</t>
+          <t>huhuhu aku jg dah ga sabar pengen buka inul vizta tp blm boleh hiks</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>['wkwkwk', 'boleh', 'dicoba', 'monggo', 'aku', 'baru', 'buka', 'inul', 'vizta', 'di', 'summarecon', 'bekasi']</t>
+          <t>['huhuhu', 'aku', 'jg', 'dah', 'ga', 'sabar', 'pengen', 'buka', 'inul', 'vizta', 'tp', 'blm', 'boleh', 'hiks']</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>['huhu', 'aku', 'juga', 'sudah', 'tidak', 'sabar', 'ingin', 'buka', 'inul', 'vizta', 'tetapi', 'belum', 'boleh', 'hiks']</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>['wkwkwk', 'dicoba', 'monggo', 'buka', 'inul', 'vizta', 'summarecon', 'bekasi']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>['wkwkwk', 'coba', 'monggo', 'buka', 'inul', 'vizta', 'summarecon', 'bekas']</t>
+          <t>['huhu', 'sabar', 'buka', 'inul', 'vizta', 'hiks']</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>['huhu', 'sabar', 'buka', 'inul', 'vizta', 'hiks']</t>
         </is>
       </c>
     </row>
@@ -2691,34 +3006,39 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>20112</v>
+        <v>32629</v>
       </c>
       <c r="C64" t="n">
-        <v>243</v>
+        <v>377</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>buka masker mau aisyah inul vs mas adam</t>
+          <t>wkwkwk boleh dicoba monggo aku baru buka inul vizta di summarecon bekasi</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>['buka', 'masker', 'mau', 'aisyah', 'inul', 'vs', 'mas', 'adam']</t>
+          <t>['wkwkwk', 'boleh', 'dicoba', 'monggo', 'aku', 'baru', 'buka', 'inul', 'vizta', 'di', 'summarecon', 'bekasi']</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['wkwk', 'boleh', 'dicoba', 'monggo', 'aku', 'baru', 'buka', 'inul', 'vizta', 'di', 'summarecon', 'bekasi']</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>['buka', 'masker', 'aisyah', 'inul', 'vs', 'mas', 'adam']</t>
+          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>['buka', 'masker', 'aisyah', 'inul', 'vs', 'mas', 'adam']</t>
+          <t>['wkwk', 'dicoba', 'monggo', 'buka', 'inul', 'vizta', 'summarecon', 'bekasi']</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>['wkwk', 'coba', 'monggo', 'buka', 'inul', 'vizta', 'summarecon', 'bekas']</t>
         </is>
       </c>
     </row>
@@ -2727,34 +3047,39 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>20113</v>
+        <v>32630</v>
       </c>
       <c r="C65" t="n">
-        <v>243</v>
+        <v>377</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>jangan asal pencet tombol inul vs mas adam</t>
+          <t>buka masker mau aisyah inul vs mas adam</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>['jangan', 'asal', 'pencet', 'tombol', 'inul', 'vs', 'mas', 'adam']</t>
+          <t>['buka', 'masker', 'mau', 'aisyah', 'inul', 'vs', 'mas', 'adam']</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
+          <t>['buka', 'masker', 'mau', 'aisya', 'inul', 'lawan', 'mas', 'adam']</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>['pencet', 'tombol', 'inul', 'vs', 'mas', 'adam']</t>
-        </is>
-      </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>['pencet', 'tombol', 'inul', 'vs', 'mas', 'adam']</t>
+          <t>['buka', 'masker', 'aisya', 'inul', 'lawan', 'mas', 'adam']</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>['buka', 'masker', 'aisya', 'inul', 'lawan', 'mas', 'adam']</t>
         </is>
       </c>
     </row>
@@ -2763,34 +3088,39 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>20114</v>
+        <v>32631</v>
       </c>
       <c r="C66" t="n">
-        <v>243</v>
+        <v>377</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>mending senyum drpd mumet ngomongin ngalor ngidul</t>
+          <t>jangan asal pencet tombol inul vs mas adam</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>['mending', 'senyum', 'drpd', 'mumet', 'ngomongin', 'ngalor', 'ngidul']</t>
+          <t>['jangan', 'asal', 'pencet', 'tombol', 'inul', 'vs', 'mas', 'adam']</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['jangan', 'asal', 'pencet', 'tombol', 'inul', 'lawan', 'mas', 'adam']</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>['mending', 'senyum', 'drpd', 'mumet', 'ngomongin', 'ngalor', 'ngidul']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>['mending', 'senyum', 'drpd', 'mumet', 'ngomongin', 'ngalor', 'ngidul']</t>
+          <t>['pencet', 'tombol', 'inul', 'lawan', 'mas', 'adam']</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>['pencet', 'tombol', 'inul', 'lawan', 'mas', 'adam']</t>
         </is>
       </c>
     </row>
@@ -2799,30 +3129,39 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>20115</v>
+        <v>32632</v>
       </c>
       <c r="C67" t="n">
-        <v>243</v>
-      </c>
-      <c r="D67" t="inlineStr"/>
+        <v>377</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>mending senyum drpd mumet ngomongin ngalor ngidul</t>
+        </is>
+      </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['mending', 'senyum', 'drpd', 'mumet', 'ngomongin', 'ngalor', 'ngidul']</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['mending', 'senyum', 'daripada', 'mumet', 'membicarakan', 'ke, utara', 'ngidul']</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['mending', 'senyum', 'mumet', 'membicarakan', 'ke, utara', 'ngidul']</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>['mending', 'senyum', 'mumet', 'bicara', 'ke utara', 'ngidul']</t>
         </is>
       </c>
     </row>
@@ -2831,34 +3170,35 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>20116</v>
+        <v>32633</v>
       </c>
       <c r="C68" t="n">
-        <v>243</v>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>jangan lupa nonton eps udah tayang cuuusss</t>
-        </is>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
-          <t>['jangan', 'lupa', 'nonton', 'eps', 'udah', 'tayang', 'cuuusss']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>['lupa', 'nonton', 'eps', 'udah', 'tayang', 'cuuusss']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>['lupa', 'nonton', 'eps', 'udah', 'tayang', 'cuuusss']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2867,34 +3207,39 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>20117</v>
+        <v>32634</v>
       </c>
       <c r="C69" t="n">
-        <v>243</v>
+        <v>377</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t xml:space="preserve">tayang jam sore ini di youtube channel aku inul daratista official nonton yo shay biar imunnya naik ojo </t>
+          <t>jangan lupa nonton eps udah tayang cuuusss</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>['tayang', 'jam', 'sore', 'ini', 'di', 'youtube', 'channel', 'aku', 'inul', 'daratista', 'official', 'nonton', 'yo', 'shay', 'biar', 'imunnya', 'naik', 'ojo']</t>
+          <t>['jangan', 'lupa', 'nonton', 'eps', 'udah', 'tayang', 'cuuusss']</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['jangan', 'lupa', 'menonton', 'episode', 'sudah', 'tayang', 'cuuusss']</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>['tayang', 'jam', 'sore', 'youtube', 'channel', 'inul', 'daratista', 'official', 'nonton', 'yo', 'shay', 'imunnya', 'ojo']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>['tayang', 'jam', 'sore', 'youtube', 'channel', 'inul', 'daratista', 'official', 'nonton', 'yo', 'shay', 'imun', 'ojo']</t>
+          <t>['lupa', 'menonton', 'episode', 'tayang', 'cuuusss']</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>['lupa', 'tonton', 'episode', 'tayang', 'cuuusss']</t>
         </is>
       </c>
     </row>
@@ -2903,34 +3248,39 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>20118</v>
+        <v>32635</v>
       </c>
       <c r="C70" t="n">
-        <v>243</v>
+        <v>377</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>sekarang live di youtube dss music</t>
+          <t xml:space="preserve">tayang jam sore ini di youtube channel aku inul daratista official nonton yo shay biar imunnya naik ojo </t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>['sekarang', 'live', 'di', 'youtube', 'dss', 'music']</t>
+          <t>['tayang', 'jam', 'sore', 'ini', 'di', 'youtube', 'channel', 'aku', 'inul', 'daratista', 'official', 'nonton', 'yo', 'shay', 'biar', 'imunnya', 'naik', 'ojo']</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['tayang', 'jam', 'sore', 'ini', 'di', 'youtube', 'channel', 'aku', 'inul', 'daratista', 'official', 'menonton', 'iya', 'say', 'biar', 'imunnya', 'naik', 'ojek, online']</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>['live', 'youtube', 'dss', 'music']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>['live', 'youtube', 'dss', 'music']</t>
+          <t>['tayang', 'jam', 'sore', 'youtube', 'channel', 'inul', 'daratista', 'official', 'menonton', 'iya', 'say', 'imunnya', 'ojek, online']</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>['tayang', 'jam', 'sore', 'youtube', 'channel', 'inul', 'daratista', 'official', 'tonton', 'iya', 'say', 'imun', 'ojek online']</t>
         </is>
       </c>
     </row>
@@ -2939,30 +3289,39 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>20119</v>
+        <v>32636</v>
       </c>
       <c r="C71" t="n">
-        <v>243</v>
-      </c>
-      <c r="D71" t="inlineStr"/>
+        <v>377</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>sekarang live di youtube dss music</t>
+        </is>
+      </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['sekarang', 'live', 'di', 'youtube', 'dss', 'music']</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['sekarang', 'live', 'di', 'youtube', 'dss', 'musik']</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['live', 'youtube', 'dss', 'musik']</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>['live', 'youtube', 'dss', 'musik']</t>
         </is>
       </c>
     </row>
@@ -2971,34 +3330,35 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>20120</v>
+        <v>32637</v>
       </c>
       <c r="C72" t="n">
-        <v>243</v>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>di youtube channel inul daratista official</t>
-        </is>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
-          <t>['di', 'youtube', 'channel', 'inul', 'daratista', 'official']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>['youtube', 'channel', 'inul', 'daratista', 'official']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>['youtube', 'channel', 'inul', 'daratista', 'official']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -3007,30 +3367,39 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>20121</v>
+        <v>32638</v>
       </c>
       <c r="C73" t="n">
-        <v>243</v>
-      </c>
-      <c r="D73" t="inlineStr"/>
+        <v>377</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>di youtube channel inul daratista official</t>
+        </is>
+      </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['di', 'youtube', 'channel', 'inul', 'daratista', 'official']</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['di', 'youtube', 'channel', 'inul', 'daratista', 'official']</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['youtube', 'channel', 'inul', 'daratista', 'official']</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>['youtube', 'channel', 'inul', 'daratista', 'official']</t>
         </is>
       </c>
     </row>
@@ -3039,34 +3408,35 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>20122</v>
+        <v>32639</v>
       </c>
       <c r="C74" t="n">
-        <v>243</v>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>selamat ulang tahun pak semoga panjang umursehat selalu serta senantiasa dalam lindungannyaaamiin</t>
-        </is>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
-          <t>['selamat', 'ulang', 'tahun', 'pak', 'semoga', 'panjang', 'umursehat', 'selalu', 'serta', 'senantiasa', 'dalam', 'lindungannyaaamiin']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>['selamat', 'ulang', 'semoga', 'umursehat', 'senantiasa', 'lindungannyaaamiin']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>['selamat', 'ulang', 'moga', 'umursehat', 'senantiasa', 'lindungannyaaamiin']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -3075,34 +3445,39 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>20123</v>
+        <v>32640</v>
       </c>
       <c r="C75" t="n">
-        <v>243</v>
+        <v>377</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>hari ini pukul wib live brownis di trans tv</t>
+          <t>selamat ulang tahun pak semoga panjang umursehat selalu serta senantiasa dalam lindungannyaaamiin</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>['hari', 'ini', 'pukul', 'wib', 'live', 'brownis', 'di', 'trans', 'tv']</t>
+          <t>['selamat', 'ulang', 'tahun', 'pak', 'semoga', 'panjang', 'umursehat', 'selalu', 'serta', 'senantiasa', 'dalam', 'lindungannyaaamiin']</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['selamat', 'ulang', 'tahun', 'pak', 'semoga', 'panjang', 'umursehat', 'selalu', 'serta', 'senantiasa', 'dalam', 'lindungannyaaamiin']</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>['wib', 'live', 'brownis', 'trans', 'tv']</t>
+          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>['wib', 'live', 'brownis', 'trans', 'tv']</t>
+          <t>['selamat', 'ulang', 'semoga', 'umursehat', 'senantiasa', 'lindungannyaaamiin']</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>['selamat', 'ulang', 'moga', 'umursehat', 'senantiasa', 'lindungannyaaamiin']</t>
         </is>
       </c>
     </row>
@@ -3111,34 +3486,39 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>20124</v>
+        <v>32641</v>
       </c>
       <c r="C76" t="n">
-        <v>243</v>
+        <v>377</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>seruduet virtual inul  bareng pantura angels pamer bojo harian alm didi kempot</t>
+          <t>hari ini pukul wib live brownis di trans tv</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>['seruduet', 'virtual', 'inul', 'bareng', 'pantura', 'angels', 'pamer', 'bojo', 'harian', 'alm', 'didi', 'kempot']</t>
+          <t>['hari', 'ini', 'pukul', 'wib', 'live', 'brownis', 'di', 'trans', 'tv']</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>['hari', 'ini', 'pukul', 'waktu, indonesia, bagian, barat', 'live', 'brownis', 'di', 'trans', 'televisi']</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>['seruduet', 'virtual', 'inul', 'bareng', 'pantura', 'angels', 'pamer', 'bojo', 'harian', 'alm', 'didi', 'kempot']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>['seruduet', 'virtual', 'inul', 'bareng', 'pantura', 'angels', 'pamer', 'bojo', 'hari', 'alm', 'didi', 'kempot']</t>
+          <t>['waktu, indonesia, bagian, barat', 'live', 'brownis', 'trans', 'televisi']</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>['waktu indonesia bagi barat', 'live', 'brownis', 'trans', 'televisi']</t>
         </is>
       </c>
     </row>
@@ -3147,34 +3527,39 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>20125</v>
+        <v>32642</v>
       </c>
       <c r="C77" t="n">
-        <v>243</v>
+        <v>377</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>besok tgl juni live pukul wib di indosiar</t>
+          <t>seruduet virtual inul  bareng pantura angels pamer bojo harian alm didi kempot</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>['besok', 'tgl', 'juni', 'live', 'pukul', 'wib', 'di', 'indosiar']</t>
+          <t>['seruduet', 'virtual', 'inul', 'bareng', 'pantura', 'angels', 'pamer', 'bojo', 'harian', 'alm', 'didi', 'kempot']</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['seruduet', 'virtual', 'inul', 'bareng', 'pantura', 'angels', 'pamer', 'bojo', 'harian', 'almarhum', 'didi', 'kempot']</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>['besok', 'tgl', 'juni', 'live', 'wib', 'indosiar']</t>
+          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>['besok', 'tgl', 'juni', 'live', 'wib', 'indosiar']</t>
+          <t>['seruduet', 'virtual', 'inul', 'bareng', 'pantura', 'angels', 'pamer', 'bojo', 'harian', 'almarhum', 'didi', 'kempot']</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>['seruduet', 'virtual', 'inul', 'bareng', 'pantura', 'angels', 'pamer', 'bojo', 'hari', 'almarhum', 'didi', 'kempot']</t>
         </is>
       </c>
     </row>
@@ -3183,34 +3568,39 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>20126</v>
+        <v>32643</v>
       </c>
       <c r="C78" t="n">
-        <v>243</v>
+        <v>377</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>drpd mulut buat komen julit mending buat makan hehehe order makanannya di dapur vizta</t>
+          <t>besok tgl juni live pukul wib di indosiar</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>['drpd', 'mulut', 'buat', 'komen', 'julit', 'mending', 'buat', 'makan', 'hehehe', 'order', 'makanannya', 'di', 'dapur', 'vizta']</t>
+          <t>['besok', 'tgl', 'juni', 'live', 'pukul', 'wib', 'di', 'indosiar']</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
+          <t>['besok', 'tanggal', 'juni', 'live', 'pukul', 'waktu, indonesia, bagian, barat', 'di', 'indosiar']</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>['drpd', 'mulut', 'komen', 'julit', 'mending', 'makan', 'hehehe', 'order', 'makanannya', 'dapur', 'vizta']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>['drpd', 'mulut', 'komen', 'julit', 'mending', 'makan', 'hehehe', 'order', 'makan', 'dapur', 'vizta']</t>
+          <t>['besok', 'tanggal', 'juni', 'live', 'waktu, indonesia, bagian, barat', 'indosiar']</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>['besok', 'tanggal', 'juni', 'live', 'waktu indonesia bagi barat', 'indosiar']</t>
         </is>
       </c>
     </row>
@@ -3219,34 +3609,39 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>20127</v>
+        <v>32644</v>
       </c>
       <c r="C79" t="n">
-        <v>243</v>
+        <v>377</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>saya dan keluarga mengucapkan selamat hari raya idul fitri  mohon maaf lahir bathin</t>
+          <t>drpd mulut buat komen julit mending buat makan hehehe order makanannya di dapur vizta</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>['saya', 'dan', 'keluarga', 'mengucapkan', 'selamat', 'hari', 'raya', 'idul', 'fitri', 'mohon', 'maaf', 'lahir', 'bathin']</t>
+          <t>['drpd', 'mulut', 'buat', 'komen', 'julit', 'mending', 'buat', 'makan', 'hehehe', 'order', 'makanannya', 'di', 'dapur', 'vizta']</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['daripada', 'mulut', 'buat', 'komen', 'julit', 'mending', 'buat', 'makan', 'hehe', 'order', 'makanannya', 'di', 'dapur', 'vizta']</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>['keluarga', 'selamat', 'raya', 'idul', 'fitri', 'mohon', 'maaf', 'lahir', 'bathin']</t>
+          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>['keluarga', 'selamat', 'raya', 'idul', 'fitri', 'mohon', 'maaf', 'lahir', 'bathin']</t>
+          <t>['mulut', 'komen', 'julit', 'mending', 'makan', 'order', 'makanannya', 'dapur', 'vizta']</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>['mulut', 'komen', 'julit', 'mending', 'makan', 'order', 'makan', 'dapur', 'vizta']</t>
         </is>
       </c>
     </row>
@@ -3255,34 +3650,39 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>20128</v>
+        <v>32645</v>
       </c>
       <c r="C80" t="n">
-        <v>243</v>
+        <v>377</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>tgl mei pukul wib konser live online yg bertajuk one love asia consert bersama artis asia lainnya</t>
+          <t>saya dan keluarga mengucapkan selamat hari raya idul fitri  mohon maaf lahir bathin</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>['tgl', 'mei', 'pukul', 'wib', 'konser', 'live', 'online', 'yg', 'bertajuk', 'one', 'love', 'asia', 'consert', 'bersama', 'artis', 'asia', 'lainnya']</t>
+          <t>['saya', 'dan', 'keluarga', 'mengucapkan', 'selamat', 'hari', 'raya', 'idul', 'fitri', 'mohon', 'maaf', 'lahir', 'bathin']</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['saya', 'dan', 'keluarga', 'mengucapkan', 'selamat', 'hari', 'raya', 'idul', 'fitri', 'mohon', 'maaf', 'lahir', 'batin']</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>['tgl', 'mei', 'wib', 'konser', 'live', 'online', 'bertajuk', 'one', 'love', 'asia', 'consert', 'artis', 'asia']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>['tgl', 'mei', 'wib', 'konser', 'live', 'online', 'tajuk', 'one', 'love', 'asia', 'consert', 'artis', 'asia']</t>
+          <t>['keluarga', 'selamat', 'raya', 'idul', 'fitri', 'mohon', 'maaf', 'lahir', 'batin']</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>['keluarga', 'selamat', 'raya', 'idul', 'fitri', 'mohon', 'maaf', 'lahir', 'batin']</t>
         </is>
       </c>
     </row>
@@ -3291,34 +3691,39 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>20129</v>
+        <v>32646</v>
       </c>
       <c r="C81" t="n">
-        <v>243</v>
+        <v>377</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>bareng boy hari sabtu tgl mei pukul wib di trans</t>
+          <t>tgl mei pukul wib konser live online yg bertajuk one love asia consert bersama artis asia lainnya</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>['bareng', 'boy', 'hari', 'sabtu', 'tgl', 'mei', 'pukul', 'wib', 'di', 'trans']</t>
+          <t>['tgl', 'mei', 'pukul', 'wib', 'konser', 'live', 'online', 'yg', 'bertajuk', 'one', 'love', 'asia', 'consert', 'bersama', 'artis', 'asia', 'lainnya']</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['tanggal', 'mei', 'pukul', 'waktu, indonesia, bagian, barat', 'konser', 'live', 'online', 'yang', 'bertajuk', 'one', 'love', 'asia', 'consert', 'bersama', 'artis', 'asia', 'lainnya']</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>['bareng', 'boy', 'sabtu', 'tgl', 'mei', 'wib', 'trans']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>['bareng', 'boy', 'sabtu', 'tgl', 'mei', 'wib', 'trans']</t>
+          <t>['tanggal', 'mei', 'waktu, indonesia, bagian, barat', 'konser', 'live', 'online', 'bertajuk', 'one', 'love', 'asia', 'consert', 'artis', 'asia']</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>['tanggal', 'mei', 'waktu indonesia bagi barat', 'konser', 'live', 'online', 'tajuk', 'one', 'love', 'asia', 'consert', 'artis', 'asia']</t>
         </is>
       </c>
     </row>
@@ -3327,34 +3732,39 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>20130</v>
+        <v>32647</v>
       </c>
       <c r="C82" t="n">
-        <v>243</v>
+        <v>377</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>konser solidaritas bersama jaga indonesia bertujuan untuk menggalang dana bagi temanteman insan pekerja senieve</t>
+          <t>bareng boy hari sabtu tgl mei pukul wib di trans</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>['konser', 'solidaritas', 'bersama', 'jaga', 'indonesia', 'bertujuan', 'untuk', 'menggalang', 'dana', 'bagi', 'temanteman', 'insan', 'pekerja', 'senieve']</t>
+          <t>['bareng', 'boy', 'hari', 'sabtu', 'tgl', 'mei', 'pukul', 'wib', 'di', 'trans']</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['bareng', 'boy', 'hari', 'sabtu', 'tanggal', 'mei', 'pukul', 'waktu, indonesia, bagian, barat', 'di', 'trans']</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>['konser', 'solidaritas', 'jaga', 'indonesia', 'bertujuan', 'menggalang', 'dana', 'temanteman', 'insan', 'pekerja', 'senieve']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>['konser', 'solidaritas', 'jaga', 'indonesia', 'tuju', 'galang', 'dana', 'temanteman', 'insan', 'kerja', 'senieve']</t>
+          <t>['bareng', 'boy', 'sabtu', 'tanggal', 'mei', 'waktu, indonesia, bagian, barat', 'trans']</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>['bareng', 'boy', 'sabtu', 'tanggal', 'mei', 'waktu indonesia bagi barat', 'trans']</t>
         </is>
       </c>
     </row>
@@ -3363,34 +3773,39 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>20131</v>
+        <v>32648</v>
       </c>
       <c r="C83" t="n">
-        <v>243</v>
+        <v>377</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t xml:space="preserve">konser solidaritas bersama jaga indonesia sabtu tgl mei pukul wib disiarkan di stasiun </t>
+          <t>konser solidaritas bersama jaga indonesia bertujuan untuk menggalang dana bagi temanteman insan pekerja senieve</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>['konser', 'solidaritas', 'bersama', 'jaga', 'indonesia', 'sabtu', 'tgl', 'mei', 'pukul', 'wib', 'disiarkan', 'di', 'stasiun']</t>
+          <t>['konser', 'solidaritas', 'bersama', 'jaga', 'indonesia', 'bertujuan', 'untuk', 'menggalang', 'dana', 'bagi', 'temanteman', 'insan', 'pekerja', 'senieve']</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['konser', 'solidaritas', 'bersama', 'jaga', 'indonesia', 'bertujuan', 'untuk', 'menggalang', 'dana', 'bagi', 'temanteman', 'insan', 'pekerja', 'senieve']</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>['konser', 'solidaritas', 'jaga', 'indonesia', 'sabtu', 'tgl', 'mei', 'wib', 'disiarkan', 'stasiun']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>['konser', 'solidaritas', 'jaga', 'indonesia', 'sabtu', 'tgl', 'mei', 'wib', 'siar', 'stasiun']</t>
+          <t>['konser', 'solidaritas', 'jaga', 'indonesia', 'bertujuan', 'menggalang', 'dana', 'temanteman', 'insan', 'pekerja', 'senieve']</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>['konser', 'solidaritas', 'jaga', 'indonesia', 'tuju', 'galang', 'dana', 'temanteman', 'insan', 'kerja', 'senieve']</t>
         </is>
       </c>
     </row>
@@ -3399,34 +3814,39 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>20132</v>
+        <v>32649</v>
       </c>
       <c r="C84" t="n">
-        <v>243</v>
+        <v>377</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>sugeng tindak masku didi kempot maestro king of campursari indonesia semoga khusnul khotimahkami akan jaga kary</t>
+          <t xml:space="preserve">konser solidaritas bersama jaga indonesia sabtu tgl mei pukul wib disiarkan di stasiun </t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>['sugeng', 'tindak', 'masku', 'didi', 'kempot', 'maestro', 'king', 'of', 'campursari', 'indonesia', 'semoga', 'khusnul', 'khotimahkami', 'akan', 'jaga', 'kary']</t>
+          <t>['konser', 'solidaritas', 'bersama', 'jaga', 'indonesia', 'sabtu', 'tgl', 'mei', 'pukul', 'wib', 'disiarkan', 'di', 'stasiun']</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['konser', 'solidaritas', 'bersama', 'jaga', 'indonesia', 'sabtu', 'tanggal', 'mei', 'pukul', 'waktu, indonesia, bagian, barat', 'disiarkan', 'di', 'stasiun']</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>['sugeng', 'tindak', 'masku', 'didi', 'kempot', 'maestro', 'king', 'of', 'campursari', 'indonesia', 'semoga', 'khusnul', 'khotimahkami', 'jaga', 'kary']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>['sugeng', 'tindak', 'mas', 'didi', 'kempot', 'maestro', 'king', 'of', 'campursari', 'indonesia', 'moga', 'khusnul', 'khotimahkami', 'jaga', 'kary']</t>
+          <t>['konser', 'solidaritas', 'jaga', 'indonesia', 'sabtu', 'tanggal', 'mei', 'waktu, indonesia, bagian, barat', 'disiarkan', 'stasiun']</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>['konser', 'solidaritas', 'jaga', 'indonesia', 'sabtu', 'tanggal', 'mei', 'waktu indonesia bagi barat', 'siar', 'stasiun']</t>
         </is>
       </c>
     </row>
@@ -3435,34 +3855,39 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>20133</v>
+        <v>32650</v>
       </c>
       <c r="C85" t="n">
-        <v>243</v>
+        <v>377</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>hari ini pukul wib rumah seleb mnctv</t>
+          <t>sugeng tindak masku didi kempot maestro king of campursari indonesia semoga khusnul khotimahkami akan jaga kary</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>['hari', 'ini', 'pukul', 'wib', 'rumah', 'seleb', 'mnctv']</t>
+          <t>['sugeng', 'tindak', 'masku', 'didi', 'kempot', 'maestro', 'king', 'of', 'campursari', 'indonesia', 'semoga', 'khusnul', 'khotimahkami', 'akan', 'jaga', 'kary']</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['sugeng', 'tindak', 'masku', 'didi', 'kempot', 'maestro', 'raja', 'of', 'campursari', 'indonesia', 'semoga', 'khusnul', 'khotimahkami', 'akan', 'jaga', 'karyawan']</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>['wib', 'rumah', 'seleb', 'mnctv']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>['wib', 'rumah', 'seleb', 'mnctv']</t>
+          <t>['sugeng', 'tindak', 'masku', 'didi', 'kempot', 'maestro', 'raja', 'of', 'campursari', 'indonesia', 'semoga', 'khusnul', 'khotimahkami', 'jaga', 'karyawan']</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>['sugeng', 'tindak', 'mas', 'didi', 'kempot', 'maestro', 'raja', 'of', 'campursari', 'indonesia', 'moga', 'khusnul', 'khotimahkami', 'jaga', 'karyawan']</t>
         </is>
       </c>
     </row>
@@ -3471,34 +3896,39 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>20134</v>
+        <v>32651</v>
       </c>
       <c r="C86" t="n">
-        <v>243</v>
+        <v>377</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t xml:space="preserve">yuuuukkk delivery steak mumpung ada disc dan dianter loh sampai ditempatkami siap melayani andamonggo di </t>
+          <t>hari ini pukul wib rumah seleb mnctv</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>['yuuuukkk', 'delivery', 'steak', 'mumpung', 'ada', 'disc', 'dan', 'dianter', 'loh', 'sampai', 'ditempatkami', 'siap', 'melayani', 'andamonggo', 'di']</t>
+          <t>['hari', 'ini', 'pukul', 'wib', 'rumah', 'seleb', 'mnctv']</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['hari', 'ini', 'pukul', 'waktu, indonesia, bagian, barat', 'rumah', 'selebriti', 'mnctv']</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>['yuuuukkk', 'delivery', 'steak', 'mumpung', 'disc', 'dianter', 'ditempatkami', 'melayani', 'andamonggo']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>['yuuuukkk', 'delivery', 'steak', 'mumpung', 'disc', 'anter', 'ditempatkami', 'layan', 'andamonggo']</t>
+          <t>['waktu, indonesia, bagian, barat', 'rumah', 'selebriti', 'mnctv']</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>['waktu indonesia bagi barat', 'rumah', 'selebriti', 'mnctv']</t>
         </is>
       </c>
     </row>
@@ -3507,34 +3937,39 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>20135</v>
+        <v>32652</v>
       </c>
       <c r="C87" t="n">
-        <v>243</v>
+        <v>377</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>dirs aamiininsha allah kabarnya baik dan sehatsebaliknya semoga keluarga disana juga dalam keadaan baik dan sehataamiin</t>
+          <t xml:space="preserve">yuuuukkk delivery steak mumpung ada disc dan dianter loh sampai ditempatkami siap melayani andamonggo di </t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>['dirs', 'aamiininsha', 'allah', 'kabarnya', 'baik', 'dan', 'sehatsebaliknya', 'semoga', 'keluarga', 'disana', 'juga', 'dalam', 'keadaan', 'baik', 'dan', 'sehataamiin']</t>
+          <t>['yuuuukkk', 'delivery', 'steak', 'mumpung', 'ada', 'disc', 'dan', 'dianter', 'loh', 'sampai', 'ditempatkami', 'siap', 'melayani', 'andamonggo', 'di']</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
+          <t>['yuk', 'delivery', 'steak', 'mumpung', 'ada', 'disc', 'dan', 'diantar', 'lah', 'sampai', 'ditempatkami', 'siap', 'melayani', 'andamonggo', 'di']</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>['dirs', 'aamiininsha', 'allah', 'kabarnya', 'sehatsebaliknya', 'semoga', 'keluarga', 'disana', 'sehataamiin']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>['dirs', 'aamiininsha', 'allah', 'kabar', 'sehatsebaliknya', 'moga', 'keluarga', 'sana', 'sehataamiin']</t>
+          <t>['yuk', 'delivery', 'steak', 'mumpung', 'disc', 'diantar', 'ditempatkami', 'melayani', 'andamonggo']</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>['yuk', 'delivery', 'steak', 'mumpung', 'disc', 'antar', 'ditempatkami', 'layan', 'andamonggo']</t>
         </is>
       </c>
     </row>
@@ -3543,34 +3978,39 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>20136</v>
+        <v>32653</v>
       </c>
       <c r="C88" t="n">
-        <v>243</v>
+        <v>377</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t xml:space="preserve">innalillahi wainnailaihi rojiun turut berduka cita yg sedalam dalamnya buat ibunda tercinta dari bpk presiden </t>
+          <t>dirs aamiininsha allah kabarnya baik dan sehatsebaliknya semoga keluarga disana juga dalam keadaan baik dan sehataamiin</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>['innalillahi', 'wainnailaihi', 'rojiun', 'turut', 'berduka', 'cita', 'yg', 'sedalam', 'dalamnya', 'buat', 'ibunda', 'tercinta', 'dari', 'bpk', 'presiden']</t>
+          <t>['dirs', 'aamiininsha', 'allah', 'kabarnya', 'baik', 'dan', 'sehatsebaliknya', 'semoga', 'keluarga', 'disana', 'juga', 'dalam', 'keadaan', 'baik', 'dan', 'sehataamiin']</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['dirs', 'aamiininsha', 'allah', 'kabarnya', 'baik', 'dan', 'sehatsebaliknya', 'semoga', 'keluarga', 'di, sana', 'juga', 'dalam', 'keadaan', 'baik', 'dan', 'sehataamiin']</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>['innalillahi', 'wainnailaihi', 'rojiun', 'berduka', 'cita', 'sedalam', 'dalamnya', 'ibunda', 'tercinta', 'bpk', 'presiden']</t>
+          <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>['innalillahi', 'wainnailaihi', 'rojiun', 'duka', 'cita', 'dalam', 'dalam', 'ibunda', 'cinta', 'bpk', 'presiden']</t>
+          <t>['dirs', 'aamiininsha', 'allah', 'kabarnya', 'sehatsebaliknya', 'semoga', 'keluarga', 'di, sana', 'sehataamiin']</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>['dirs', 'aamiininsha', 'allah', 'kabar', 'sehatsebaliknya', 'moga', 'keluarga', 'di sana', 'sehataamiin']</t>
         </is>
       </c>
     </row>
@@ -3579,34 +4019,39 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>20137</v>
+        <v>32654</v>
       </c>
       <c r="C89" t="n">
-        <v>243</v>
+        <v>377</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>rt ingat meski rasanya kita sehat saja bisa jadi virus covid sdh di tubuh kita tanpa kita sadari kita menjadi penyebar</t>
+          <t xml:space="preserve">innalillahi wainnailaihi rojiun turut berduka cita yg sedalam dalamnya buat ibunda tercinta dari bpk presiden </t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>['rt', 'ingat', 'meski', 'rasanya', 'kita', 'sehat', 'saja', 'bisa', 'jadi', 'virus', 'covid', 'sdh', 'di', 'tubuh', 'kita', 'tanpa', 'kita', 'sadari', 'kita', 'menjadi', 'penyebar']</t>
+          <t>['innalillahi', 'wainnailaihi', 'rojiun', 'turut', 'berduka', 'cita', 'yg', 'sedalam', 'dalamnya', 'buat', 'ibunda', 'tercinta', 'dari', 'bpk', 'presiden']</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 21 outcomes&gt;</t>
+          <t>['innalillahi', 'wainnailaihi', 'rojiun', 'turut', 'berduka', 'cita', 'yang', 'sedalam', 'dalamnya', 'buat', 'ibunda', 'tercinta', 'dari', 'bapak', 'presiden']</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>['sehat', 'virus', 'covid', 'tubuh', 'sadari', 'penyebar']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>['sehat', 'virus', 'covid', 'tubuh', 'sadar', 'sebar']</t>
+          <t>['innalillahi', 'wainnailaihi', 'rojiun', 'berduka', 'cita', 'sedalam', 'dalamnya', 'ibunda', 'tercinta', 'presiden']</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>['innalillahi', 'wainnailaihi', 'rojiun', 'duka', 'cita', 'dalam', 'dalam', 'ibunda', 'cinta', 'presiden']</t>
         </is>
       </c>
     </row>
@@ -3615,34 +4060,39 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>20138</v>
+        <v>32655</v>
       </c>
       <c r="C90" t="n">
-        <v>243</v>
+        <v>377</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>malam ini live pukul wib hanya di mnctv</t>
+          <t>rt ingat meski rasanya kita sehat saja bisa jadi virus covid sdh di tubuh kita tanpa kita sadari kita menjadi penyebar</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>['malam', 'ini', 'live', 'pukul', 'wib', 'hanya', 'di', 'mnctv']</t>
+          <t>['rt', 'ingat', 'meski', 'rasanya', 'kita', 'sehat', 'saja', 'bisa', 'jadi', 'virus', 'covid', 'sdh', 'di', 'tubuh', 'kita', 'tanpa', 'kita', 'sadari', 'kita', 'menjadi', 'penyebar']</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['rt', 'ingat', 'meski', 'rasanya', 'kita', 'sehat', 'saja', 'bisa', 'jadi', 'virus', 'covid', 'sudah', 'di', 'tubuh', 'kita', 'tanpa', 'kita', 'sadari', 'kita', 'menjadi', 'penyebar']</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>['malam', 'live', 'wib', 'mnctv']</t>
+          <t>&lt;FreqDist with 18 samples and 21 outcomes&gt;</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>['malam', 'live', 'wib', 'mnctv']</t>
+          <t>['sehat', 'virus', 'covid', 'tubuh', 'sadari', 'penyebar']</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>['sehat', 'virus', 'covid', 'tubuh', 'sadar', 'sebar']</t>
         </is>
       </c>
     </row>
@@ -3651,34 +4101,39 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>20139</v>
+        <v>32656</v>
       </c>
       <c r="C91" t="n">
-        <v>243</v>
+        <v>377</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>selamat pagi surabaya</t>
+          <t>malam ini live pukul wib hanya di mnctv</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>['selamat', 'pagi', 'surabaya']</t>
+          <t>['malam', 'ini', 'live', 'pukul', 'wib', 'hanya', 'di', 'mnctv']</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['malam', 'ini', 'live', 'pukul', 'waktu, indonesia, bagian, barat', 'hanya', 'di', 'mnctv']</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>['selamat', 'pagi', 'surabaya']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>['selamat', 'pagi', 'surabaya']</t>
+          <t>['malam', 'live', 'waktu, indonesia, bagian, barat', 'mnctv']</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>['malam', 'live', 'waktu indonesia bagi barat', 'mnctv']</t>
         </is>
       </c>
     </row>
@@ -3687,34 +4142,39 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>20140</v>
+        <v>32657</v>
       </c>
       <c r="C92" t="n">
-        <v>243</v>
+        <v>377</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>siang ini pukul wib di mnctv live goyang in dari lapangan inkopad parung bogor</t>
+          <t>selamat pagi surabaya</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>['siang', 'ini', 'pukul', 'wib', 'di', 'mnctv', 'live', 'goyang', 'in', 'dari', 'lapangan', 'inkopad', 'parung', 'bogor']</t>
+          <t>['selamat', 'pagi', 'surabaya']</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['selamat', 'pagi', 'surabaya']</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>['siang', 'wib', 'mnctv', 'live', 'goyang', 'in', 'lapangan', 'inkopad', 'parung', 'bogor']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>['siang', 'wib', 'mnctv', 'live', 'goyang', 'in', 'lapang', 'inkopad', 'parung', 'bogor']</t>
+          <t>['selamat', 'pagi', 'surabaya']</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>['selamat', 'pagi', 'surabaya']</t>
         </is>
       </c>
     </row>
@@ -3723,30 +4183,39 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>20141</v>
+        <v>32658</v>
       </c>
       <c r="C93" t="n">
-        <v>243</v>
-      </c>
-      <c r="D93" t="inlineStr"/>
+        <v>377</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>siang ini pukul wib di mnctv live goyang in dari lapangan inkopad parung bogor</t>
+        </is>
+      </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['siang', 'ini', 'pukul', 'wib', 'di', 'mnctv', 'live', 'goyang', 'in', 'dari', 'lapangan', 'inkopad', 'parung', 'bogor']</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['siang', 'ini', 'pukul', 'waktu, indonesia, bagian, barat', 'di', 'mnctv', 'live', 'goyang', 'in', 'dari', 'lapangan', 'inkopad', 'parung', 'bogor']</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['siang', 'waktu, indonesia, bagian, barat', 'mnctv', 'live', 'goyang', 'in', 'lapangan', 'inkopad', 'parung', 'bogor']</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>['siang', 'waktu indonesia bagi barat', 'mnctv', 'live', 'goyang', 'in', 'lapang', 'inkopad', 'parung', 'bogor']</t>
         </is>
       </c>
     </row>
@@ -3755,34 +4224,35 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>20142</v>
+        <v>32659</v>
       </c>
       <c r="C94" t="n">
-        <v>243</v>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>bismillah bengkulu</t>
-        </is>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr">
         <is>
-          <t>['bismillah', 'bengkulu']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>['bismillah', 'bengkulu']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>['bismillah', 'bengkulu']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -3791,34 +4261,39 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>20143</v>
+        <v>32660</v>
       </c>
       <c r="C95" t="n">
-        <v>243</v>
+        <v>377</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>hehehe</t>
+          <t>bismillah bengkulu</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>['hehehe']</t>
+          <t>['bismillah', 'bengkulu']</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['bismillah', 'bengkulu']</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>['hehehe']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>['hehehe']</t>
+          <t>['bismillah', 'bengkulu']</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>['bismillah', 'bengkulu']</t>
         </is>
       </c>
     </row>
@@ -3827,34 +4302,39 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>20144</v>
+        <v>32661</v>
       </c>
       <c r="C96" t="n">
-        <v>243</v>
+        <v>377</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>bismillah surabaya</t>
+          <t>hehehe</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>['bismillah', 'surabaya']</t>
+          <t>['hehehe']</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['hehe']</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>['bismillah', 'surabaya']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>['bismillah', 'surabaya']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -3863,34 +4343,39 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>20145</v>
+        <v>32662</v>
       </c>
       <c r="C97" t="n">
-        <v>243</v>
+        <v>377</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>bismillah makasar</t>
+          <t>bismillah surabaya</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>['bismillah', 'makasar']</t>
+          <t>['bismillah', 'surabaya']</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
+          <t>['bismillah', 'surabaya']</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>['bismillah', 'makasar']</t>
-        </is>
-      </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>['bismillah', 'makasar']</t>
+          <t>['bismillah', 'surabaya']</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>['bismillah', 'surabaya']</t>
         </is>
       </c>
     </row>
@@ -3899,34 +4384,39 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>20146</v>
+        <v>32663</v>
       </c>
       <c r="C98" t="n">
-        <v>243</v>
+        <v>377</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>bismillah solo</t>
+          <t>bismillah makasar</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>['bismillah', 'solo']</t>
+          <t>['bismillah', 'makasar']</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
+          <t>['bismillah', 'makassar']</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>['bismillah', 'solo']</t>
-        </is>
-      </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>['bismillah', 'solo']</t>
+          <t>['bismillah', 'makassar']</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>['bismillah', 'makassar']</t>
         </is>
       </c>
     </row>
@@ -3935,34 +4425,39 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>20147</v>
+        <v>32664</v>
       </c>
       <c r="C99" t="n">
-        <v>243</v>
+        <v>377</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>bismillah surabaya</t>
+          <t>bismillah solo</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>['bismillah', 'surabaya']</t>
+          <t>['bismillah', 'solo']</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
+          <t>['bismillah', 'solo']</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>['bismillah', 'surabaya']</t>
-        </is>
-      </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>['bismillah', 'surabaya']</t>
+          <t>['bismillah', 'solo']</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>['bismillah', 'solo']</t>
         </is>
       </c>
     </row>
@@ -3971,34 +4466,39 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>20148</v>
+        <v>32665</v>
       </c>
       <c r="C100" t="n">
-        <v>243</v>
+        <v>377</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>nanti malam live di mnctv pukul wib dari pantai widuri pemalang</t>
+          <t>bismillah surabaya</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>['nanti', 'malam', 'live', 'di', 'mnctv', 'pukul', 'wib', 'dari', 'pantai', 'widuri', 'pemalang']</t>
+          <t>['bismillah', 'surabaya']</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['bismillah', 'surabaya']</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>['malam', 'live', 'mnctv', 'wib', 'pantai', 'widuri', 'pemalang']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>['malam', 'live', 'mnctv', 'wib', 'pantai', 'widuri', 'malang']</t>
+          <t>['bismillah', 'surabaya']</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>['bismillah', 'surabaya']</t>
         </is>
       </c>
     </row>
@@ -4007,34 +4507,39 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>20149</v>
+        <v>32666</v>
       </c>
       <c r="C101" t="n">
-        <v>243</v>
+        <v>377</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>malam tahun baru imlekvasa hotel surabaya</t>
+          <t>nanti malam live di mnctv pukul wib dari pantai widuri pemalang</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>['malam', 'tahun', 'baru', 'imlekvasa', 'hotel', 'surabaya']</t>
+          <t>['nanti', 'malam', 'live', 'di', 'mnctv', 'pukul', 'wib', 'dari', 'pantai', 'widuri', 'pemalang']</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['nanti', 'malam', 'live', 'di', 'mnctv', 'pukul', 'waktu, indonesia, bagian, barat', 'dari', 'pantai', 'widuri', 'pemalang']</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>['malam', 'imlekvasa', 'hotel', 'surabaya']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>['malam', 'imlekvasa', 'hotel', 'surabaya']</t>
+          <t>['malam', 'live', 'mnctv', 'waktu, indonesia, bagian, barat', 'pantai', 'widuri', 'pemalang']</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>['malam', 'live', 'mnctv', 'waktu indonesia bagi barat', 'pantai', 'widuri', 'malang']</t>
         </is>
       </c>
     </row>
